--- a/Chaldal_scraper/scrapped_data/Chaldaal_rawdata_v1.0.xlsx
+++ b/Chaldal_scraper/scrapped_data/Chaldaal_rawdata_v1.0.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="menu_urls" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="submenu_urls" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="item_info" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -630,135 +628,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>menu</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>item</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Date Crown Lulu Dates</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>400 gm</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>৳ 249</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Popular</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ajwa Premium Dates</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>500 gm</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>৳ 693</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Origin: Saudi Arabia Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Free Ajwa dates Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm Ajwa Dates (0.25 cup) contains 30g total carbs, 27g net carbs, 0g fat, 1g protein, and 120 calories</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Popular</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Chaldal_scraper/scrapped_data/Chaldaal_rawdata_v1.0.xlsx
+++ b/Chaldal_scraper/scrapped_data/Chaldaal_rawdata_v1.0.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="menu_urls" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="submenu_urls" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="item_info" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -628,4 +630,5228 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>menu</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fresh Vegetables</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/fresh-vegetable</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fresh Fruits</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/fresh-fruit</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Dates (Khejur)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/dates-khejur</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chicken &amp; Poultry</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/chicken-poultry</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Premium Perishables</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/premium-perishables</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Frozen Fish</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/frozen-fish</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Meat</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/meat-new</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tofu &amp; Meat Alternatives</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/tofu-meat-alternatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Dried Fish</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/dried-fish</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Spices</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/spices</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Salt &amp; Sugar</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/salt-sugar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/rices</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dal or Lentil</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/dal-or-lentil</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ready Mix</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/ready-mix</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shemai &amp; Suji</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/shemai-suji</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Special Ingredients</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/miscellaneous</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Colors &amp; Flavours</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/colors-flavours</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ghee</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/ghee</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Premium Ingredients</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/premium-ingredients</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tomato Sauces</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/tomato-sauces</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pickles</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/pickles</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cooking Sauces</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/cooking-sauces</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Other Table Sauces</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/other-sauces</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Eggs</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/eggs</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Powder Milk</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/powder-milk</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Liquid &amp; UHT Milk</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/liquid-uht-milk</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Yogurt &amp; Sweets</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/yogurt</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cheese</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/cheeses</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Condensed Milk &amp; Cream</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/condensed-milk-cream</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Butter &amp; Sour Cream</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/butter-sour-cream</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Eggs</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/eggs-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Breads</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/breads</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tea &amp; Coffee</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/tea-coffee-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Local Breakfast</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/local-breakfast</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cereals</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/cereals</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Honey</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/honey</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Dips, Spreads &amp; Syrups</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/spreads-syrups</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Energy Boosters</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/energy-boosters</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jams &amp; Jellies</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/jams-jellies</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chocolates</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/chocolates</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Wafers</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/wafers</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Candies</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/candies</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Gums, Mints &amp; Mouth Fresheners</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/mints-mouth-fresheners</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jellies &amp; Marshmallows</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/halal-marshmallows</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Noodles</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/noodles</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/cookies-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Local Snacks</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/local-snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chips &amp; Pretzels</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/chips-pretzels</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Plain Biscuits</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/plain-biscuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Toast &amp; Bakery Biscuits</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/toast-biscuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Cream Biscuits</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/cream-biscuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Pasta &amp; Macaroni</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/pasta-macaroni</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Soups</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/soups</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Popcorn &amp; Nuts</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/popcorn-nuts</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Salted Biscuits</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/salted-biscuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Cakes</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/cakes</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Salad Dressing</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/salad-dressing</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Tea</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/beverages-tea</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/soft-drinks</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/coffees</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Syrups &amp; Powder Drinks</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/powder-mixes</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Juice</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/juice</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/water</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Flour</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/flour</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Nuts &amp; Dried Fruits</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/nuts-dried-fruits</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Baking Ingredients</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/baking-ingredients</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Baking Tools</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/baking-tools</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Baking &amp; Dessert Mixes</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/baking-mixes</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chicken Snacks</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/chicken-snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Frozen Parathas &amp; Roti</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/frozen-parathas-roti</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Vegetable Snacks</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/vegetable-snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Mushroom Cans</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/mushroom-cans</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Beef Snacks</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/beef-snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Vegetable Cans</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/vegetable-cans</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Fish Cans</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/fish-cans</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Canned Fruits &amp; Sweets</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/canned-fruits</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Fish Snacks</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/fish-snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Fruits &amp; Vegetables</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/fruits-vegetables</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Meat &amp; Fish</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/meat-fish</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Cooking</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/cooking</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sauces &amp; Pickles</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/sauces-pickles</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Dairy &amp; Eggs</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/dairy</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Breakfast</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/breakfast</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Candy &amp; Chocolate</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/candy-chocolate</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Snacks</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/beverages</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Baking</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/baking-needs</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Frozen &amp; Canned</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/frozen-foods</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Diabetic Food</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://chaldal.com/diabetic-food</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E158"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Date Crown Lulu Dates</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>৳ 249</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ramadan</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ajwa Premium Dates</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>৳ 693</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Origin: Saudi Arabia Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Free Ajwa dates Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm Ajwa Dates (0.25 cup) contains 30g total carbs, 27g net carbs, 0g fat, 1g protein, and 120 calories</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ramadan</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chaldal Basic Dishwashing Bar</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>300 gm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>৳ 29</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Chaldal Basic Dishwashing Bar with the power of 100 lemons helps to clean tough grease the fastest. It gives you a pleasant cleaning experience with its refreshing lemon fragrance. It removes stains easily. It is tough on stains, and gentle on your hands. Just take a little bit of Chaldal Basic Dishwashing Bar on your scrubber and clean your cooking vessels. So go ahead and enjoy the Chaldal Basic Dishwashing Bar experience.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Flash Sales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chaldal Basic Dishwashing Bar</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100 gm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>৳ 12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaldal Basic Dishwashing Bar with the power of 100 lemons helps to clean tough grease the fastest. It gives you a pleasant cleaning experience with its refreshing lemon fragrance. It removes stains easily. It is tough on stains, gentle on your hands. Just take a little bit of Chaldal Basic Dishwashing Bar on your scrubber and clean your cooking vessels. So go ahead and enjoy the Chaldal Basic Dishwashing Bar experience. </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Flash Sales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Date Crown Lulu Dates</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>৳ 249</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Popular</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ajwa Premium Dates</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>৳ 693</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Origin: Saudi Arabia Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Free Ajwa dates Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm Ajwa Dates (0.25 cup) contains 30g total carbs, 27g net carbs, 0g fat, 1g protein, and 120 calories</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Popular</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Deshi Peyaj (Local Onion) ± 50 gm</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>৳ 69</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30-35 pcs  Though all vegetables are important for health, certain kinds offer unique benefits.  Onions are members of the Allium genus of flowering plants that also includes garlic, shallots, leeks and chives.  These vegetables contain various vitamins, minerals and potent plant compounds that have been shown to promote health in many ways.  In fact, the medicinal properties of onions have been recognized since ancient times, when they were used to treat ailments like headaches, heart disease and mouth sores.  Nutritional facts/Ingredients : Benefits: -Packed With Nutrients -May Benefit Heart Health -Loaded With Antioxidants -Contain Cancer-Fighting Compounds -Help Control Blood Sugar -May Boost Bone Density -Have Antibacterial Properties -May Boost Digestive Health -Easy to Add to Your Diet.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fresh Vegetables</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Potato Regular (± 50 gm)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>৳ 45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 -22 pcs  Buy regular potato from us which provides you with dietary fiber, potassium, vitamins, etc. Regular potato provides 9-10 percent of your daily need. Regular potatoes offer more of this nutrient which helps control your blood pressure. Make a good curry with regular potato. You can make French fries and you can enjoy with your family members. </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fresh Vegetables</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Shagor Kola (Banana Sagor)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4 pcs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>৳ 49</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fresh Fruits</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Banana Chompa (Ready To Eat)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4 pcs</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>৳ 35</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Banana Chompa (kola) is the most popular fresh fruit in the world. It has lots of variety. Banana Chompa is one of them. Bananas are a great super food that provides us with energy, makes us feel full, and provides our body with essential nutrients and a high amount of fiber. It is a high-calorie tropical fruit. As 100 grams of banana flesh carries 90 calories. Besides, it contains a good amount of health-benefiting fiber, anti-oxidants, minerals, and vitamins. Bananas could help you to feel happier as they contain tryptophan, a type of protein that the body converts into serotonin, known to promote relaxation and improve mood.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fresh Fruits</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Date Crown Lulu Dates</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>৳ 249</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dates (Khejur)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ajwa Premium Dates</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>৳ 693</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Origin: Saudi Arabia Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Free Ajwa dates Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm Ajwa Dates (0.25 cup) contains 30g total carbs, 27g net carbs, 0g fat, 1g protein, and 120 calories</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dates (Khejur)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Broiler Chicken Skin On ± 50 gm</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>৳ 339</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Before processing this product's live weight was 1.5-1.55 kg.  Broiler chickens are raised primarily for meat rather than to lay eggs. These poultry are often white and are bred to be large and very healthy, often with more breast meat for the consumer market. Broiler chicken breeds grow very fast and offer good value in terms of protein and calories.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Chicken &amp; Poultry</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Cock Chicken Skin Off ± 25 gm</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>৳ 299</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Before processing this product's live weight was 900-950 gm.  After Processed Weight: 500-550 gm. A cock is a sexually mature chicken over one year of age, also known as a rooster. Bonus definitions: A cockerel is a young male chicken that is not yet one year old. A pullet is a young female chicken that is fully feathered, is less than one year of age, and has not yet laid an egg. </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Chicken &amp; Poultry</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chaldal Premium Pangas Fish Headless ±30 gm</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>৳ 199</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Pangas is a less bony fish, it has pink flesh and a mild smell which makes it popular. Pangas flesh is tender and has a moist &amp; sweet flavor. When cooked the flesh turns white and flaky.  Chaldal Pangas Curry Cut each pack contains 500gm which has 7 to 11 pics fish steak.  Pangas is a versatile fish that can be cooked in a variety of ways, including baking, grilling, frying, and steaming. It is a low-fat, low-calorie protein source that is rich in essential nutrients like Omega-3 fatty acids, vitamins B12 and D, and minerals such as phosphorus and selenium. Whether you are a professional chef or a home cook, Pangas fish is a great option for those who want to include more seafood in their diet. Order Pangas fish today and add a healthy, delicious, and easy-to-cook option to your menu!</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Premium Perishables</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chaldal Premium Koi Fish Medium (7-9 pcs) ±30 gm</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>৳ 239</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Koi are freshwater fish that belong to the family of carp fish. Koi has a single centre bone and multiple small bones, that can be removed after cooking. It has firm skin and texture and an oily flavor. This cut consists of medium-sized, whole, cleaned &amp; gutted koi fish, with head, for your convenience. Koi fish can be enjoyed steamed, grilled, fried or in curries. They are widely enjoyed in Bengali cuisine, Tel Koi being a popular dish.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Premium Perishables</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fresh Haleem Mix 200 gm And Halim Meat (Beef) ± 20 gm 300 gm (Combo Offer)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>৳ 259</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Meat</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Broiler Chicken Skin On ± 50 gm</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>৳ 339</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Before processing this product's live weight was 1.5-1.55 kg.  Broiler chickens are raised primarily for meat rather than to lay eggs. These poultry are often white and are bred to be large and very healthy, often with more breast meat for the consumer market. Broiler chicken breeds grow very fast and offer good value in terms of protein and calories.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Meat</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Tofu</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>150 gm</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>৳ 69</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tofu &amp; Meat Alternatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hibiscus Mushrooms Choice Whole Can</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>425 gm</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>৳ 179</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Hibiscus Mushrooms Choice Whole are a gourmet delight, featuring carefully selected whole mushrooms that have been harvested at their peak of freshness. These mushrooms are packed in a 425-gram can to preserve their quality and flavor. Renowned for their versatility and delicious taste, they serve as a culinary canvas to elevate your dishes to new heights of flavor and presentation.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tofu &amp; Meat Alternatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fargo Safe Dry Fish (Churi Shutki)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>100 gm</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>৳ 305</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fargo is introducing safe and Organic Churi Dry Fish (from World Bank, IFAD &amp; PKSF supported Safe Dry Fish Project). This quality protein and nutrient rich sea dry fish has iodine*, high-quality protein, OMEGA-3 Fatty Acid, Zinc, Calcium, copper and selenium. It is 100% natural and hygienically processed with no added preservatives.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Dried Fish</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kazi Farms Kitchen Kechki Dried Fish</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>125 gm</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>৳ 280</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Kazi Farms Kitchen Kechki Dried Fish is a high-quality and nutritious food product made from fresh and clean Kechki fish that are caught from freshwater sources. The fish are carefully cleaned, salted, and dried using traditional methods to preserve their taste and nutritional value</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Dried Fish</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cumin (Jira)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>100 gm</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>৳ 119</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Spices</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cardamom (Elachi) Whole</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>50 gm</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>৳ 179</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Elach, Cardamom (Elachi) is a spice with an intense, slightly sweet flavor that some people compare to mint. Its antioxidant and diuretic properties may lower blood pressure.The compounds in cardamom may help fight cancer cells. Elach is rich in compounds that may fight inflammation. Cardamom has been used for thousands of years to help with digestion.The use of cardamom to treat bad breath and improve oral health is an ancient remedy. Compounds in cardamom may help increase airflow to your lungs and improve breathing. When taken in powder form, cardamom may lower blood sugar.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Spices</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fresh Refined Sugar</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>৳ 146</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fresh Refined sugar is a modern processes of without touching hand to protect the health of assurance. Fresh refined sugar is completely acid, fecal residues free and neat and clean, healthy, granulated sugar.  </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Salt &amp; Sugar</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Fresh Super Premium (Vacuum) Salt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>৳ 37</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fresh Super Premium Salt is a high-quality salt product that comes in a 1 kg packaging. This salt is typically labeled as "Super Premium" to denote its superior quality and purity.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Salt &amp; Sugar</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Miniket Rice Premium (Boiled) ± 50 gm</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5 kg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>৳ 379</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chaldal is offering the most popular Rice in Bangladesh now available at affordable price. Rice Type: Miniket Premium.  Net Weight 5 kg.  </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chinigura Rice Premium</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>৳ 149</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chola Boot (Chick Peas)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>৳ 119</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Dal or Lentil</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Moshur Dal (Deshi)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>৳ 149</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">These skinless, red lentils are small and round. They are fast-cooking and don't need to be soaked. They are often cooked, mashed and added to curries and soups. Masoor is a very versatile lentil and has a creamy texture and warming flavor. </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Dal or Lentil</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fresh Haleem Mix 200 gm And Halim Meat (Beef) ± 20 gm 300 gm (Combo Offer)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>৳ 259</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Ready Mix</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Radhuni Chicken Masala</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20 gm</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>৳ 20</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Radhuni Chicken Masala mix helps you prepare rich and aromatic Chicken Curry for an appetizing and flavorful dish in an easy manner at the comfort of your home. Serving for 7-8 people, this 20gm convenient pack is ideal for 1 KG size chicken.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Ready Mix</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Radhuni Shemai</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>৳ 45</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Radhuni shemai has superb taste. it is smooth, lean &amp; thin and easy to prepare. Radhuni shemai is hygienically manufactured from finest quality flour which ensures delicious jorda shemai, milk shemai &amp; falooda.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Shemai &amp; Suji</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Dekko Shahi Shemai</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>180 gm</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>৳ 40</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Shemai &amp; Suji</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chickpea Flour (Boot Beshon)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>৳ 69</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Special Ingredients</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nutmeg (Jayfal) Whole</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5 pcs</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>৳ 59</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Special Ingredients</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rupchanda Fortified Soyabean Oil</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5 ltr</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>৳ 800</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>First Vitamin A fortified Soyabean Oil.  Increases immunity.  Strengthens bone &amp; teeth.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rupchanda Fortified Soyabean Oil</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2 ltr</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>৳ 328</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21 years of heritage.  First Vitamin A fortified Soyabean Oil.  Increases immunity.  Strengthens bone &amp; teeth. </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ahmed White Vinegar</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>325 ml</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>৳ 50</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>INGREDIENTS: Food Grade Acetic Acid (E-260) &amp; Distilled Water.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Colors &amp; Flavours</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Radhuni Kasundi</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>285 ml</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>৳ 65</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Kasundi is a protein-rich, spicy relish made from mustard seeds. A condiment and a taste-enhancer. Kasundi brings out the best taste in whatever it is paired up with: seasonal green fruits, snacks such as “shingara” &amp; “pakora”. Recent use of this condiment is in the preparation of “Shorshe Ilish”- a famous traditional recipe in Bengali cuisine &amp; even as salad dressings. A dash of Radhuni Kasundi with any food will leave your taste buds tingling with joy.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Colors &amp; Flavours</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Pran Premium Ghee</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>100 gm</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>৳ 190</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Ghee</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Parboti Ghee</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>300 gm</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>৳ 500</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Ghee</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chia Seed</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>100 gm</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>৳ 89</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Premium Ingredients</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Fit Food Chia Seed</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>৳ 320</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Best Grade Chia Seed (Good Source of Fibre, Minerals and Omega Fatty Acid )  Benefits of Chia Seeds:  1. The High Fiber and Protein Content in Chia Seeds May Help You Lose Weight 2. Chia Seeds Are Loaded With Antioxidants 3. Almost All the Carbs in Them Are Fiber 4. Chia Seeds Are High in Quality Protein 5. Chia Seeds Deliver a Massive Amount of Nutrients With Very Few Calories 6. Chia Seeds Are High in Omega-3 Fatty Acids 7. Chia Seeds May Lower Your Risk of Heart Disease Given that chia seeds are high in fiber, protein an 8. They’re High in Many Important Bone Nutrients 9. Chia Seeds May Reduce Blood Sugar Levels 10. They May Reduce Chronic Inflammation 11. Chia Seeds Are Easy to Incorporate Into Your Diet</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Premium Ingredients</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Pran Tomato Sauce</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>340 gm</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>৳ 100</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pran hot tomato sauce made from fresh tomato, chili, sugar,citric acid (E-330), sodium benzoate (211). Its tasty and healthy. Pran Hot Tomato Sauce can be use in various way. </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Tomato Sauces</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ruchi Tomato Ketchup</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>350 gm</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>৳ 100</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruchi Tomato Ketchup is an amazing taste enhancer of any daily snacks. Its seasoned secrete "Ruchi" recipe and ingredients together gives real taste of fresh ingredients. </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Tomato Sauces</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ruchi Mixed Pickle</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>৳ 150</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Ruchi Mixed Pickle is made from raw seasonal Bangladeshi mango, chalta and garlic with the mix of all natural ingredients. The sweet and soury taste and flavor of this pickle makes any day to day dish unique."</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Pickles</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ruchi Olive Pickle</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>৳ 185</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Ruchi Olive Pickle is made from raw seasonal Bangladeshi olive and with the mix of all natural ingredients. The soury olive taste and flavor of Ruchi Oliver Pickle makes any day to day dish unique."</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Pickles</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ahmed Soya Sauce</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>500 ml</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>৳ 125</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh Manufacturer: Ahmed food products Ltd. Soya sauce for all purpose seasoning. Vegan Halal certified Ingredients: Concentrated soya, salt, sugar, water, mono sodium glutamate(E-621), sodium benzoate(E-211) Nutritional facts: Sodium 0.05% , Carbohydrate 25%</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Cooking Sauces</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ruchi Garlic Sauce</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>350 gm</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>৳ 150</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>General Sauce-Ketchup Product</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Cooking Sauces</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ruchi Red Chilli Sauce</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>360 gm</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>৳ 150</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Ruchi Red Chili Sauce is an amazing taste enhancer of any daily snacks which gives an unique taste of red chili, sourness and sweetness togather. Its seasoned secrete "Ruchi" recipe and ingredients together gives real taste of fresh ingredients. "</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Other Table Sauces</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ruchi Tamarind Sauce</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>370 gm</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>৳ 120</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Ruchi Tamarind Sauce is made from raw tamarind and seasoned secrete recipe. It gives any general fried snacks like Pakora a different dimension of taste."</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Other Table Sauces</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chicken Eggs (Layer)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>12 pcs</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>৳ 119</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Egg Weight (Per Pc): 55-65 gm  Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Eggs</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chicken Eggs (Special Offer)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>12 pcs</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>৳ 109</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Eggs</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Arla Dano Daily Pushti Milk Powder</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>৳ 395</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Dano Daily Pushti has been in Bangladesh since 2015 with the noble goal to ensure nutrition for all! This skimmed milk infused with vegetable fat is the most popular powder milk brand in Bangladesh, reaching over one-third of total households in a year. Dano Daily Pushti ensures accessibility and affordability of pure milk for all walks of people so that they can meet their dairy needs for drinking, tea or for food preparation. Like other Dano brands, this also comes directly from the farms of Europe maintaining strict quality standards.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Powder Milk</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Arla Dano Daily Pushti Milk Powder</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>৳ 760</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Dano Daily Pushti has been in Bangladesh since 2015 with the noble goal to ensure nutrition for all! This skimmed milk infused with vegetable fat is the most popular powder milk brand in Bangladesh, reaching over one-third of total households in a year. Dano Daily Pushti ensures accessibility and affordability of pure milk for all walks of people so that they can meet their dairy needs for drinking, tea or for food preparation. Like other Dano brands, this also comes directly from the farms of Europe maintaining strict quality standards.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Powder Milk</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Aarong Dairy Pasteurized Liquid Milk</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1 ltr</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>৳ 95</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Milk is the best source of calcium. And it keeps skin soft and glowing. And in order to improve proper growth, you can have Aarong Dairy Liquid Milk. Brand: Aarong Dairy. Milk Type: Liquid. Net weight 1 Ltr.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Liquid &amp; UHT Milk</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Pran Pasteurized Full Cream Liquid Milk</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1 ltr</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>৳ 90</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Liquid &amp; UHT Milk</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Aarong Dairy Sour Curd</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>৳ 110+৳3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Brac Dairy &amp; Food Project  1. Boosts Immunity Level 2. Prevents Cold 3. Better Digestion 4. Strengthen The Bones</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Yogurt &amp; Sweets</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Aarong Dairy Low Fat Yogurt (Sour)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>৳ 100</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Delicious, creamy and smooth, made from fresh milk collected every day from homestead dairy farmers across Bangladesh. It is completely natural, free of artificial ingredients and preservatives. Share and Enjoy! CATEGORIES: LOW FAT YOGHURT, YOGHURT, LOW FAT PRODUCTS.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Yogurt &amp; Sweets</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Aarong Dairy Austagram Cheese</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>৳ 190</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh Manuacturer: Aarong dairy Austagram Cheese is a white, salty, semi-hard indigenous cheese. Common salt is an important constituent of this cheese for its role in preservation. Composition: Cow’s Fresh Milk, Enzyme &amp; Sodium Chloride Nutrition: Protein, Energy, Milk fat, Carbohydrate, Minerals.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Cheese</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Aarong Dairy Paneer</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>৳ 200</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Paneer is a fresh, creamy, normally unsalted cheese. It is made by curdling hot milk using lemon juice, citric acid or vinegar. The result is a soft, fluffy cheese that is firm and can be cut into slices, pieces or blocks as required but doesn’t crumble easily. The texture is firm and has the ability to retain its shape for a long time, even when it’s cooked or baked over high heat. CATEGORIES: PONIR, CHEESE</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Cheese</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Goalini Plus Condensed Milk</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>৳ 105</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brand- Goalini Product type- Condensed Milk 400gm Technology AVP Switzerland. Ingredient: Skimmed Milk Powder, whey Powder, Super Refined Sugar, Pure Vegetable Fat8.0%, Lactose &amp; RO Treated Water. </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Condensed Milk &amp; Cream</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Puck Sterilized Cream</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>160 gm</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>৳ 329</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Indulge in the creamy richness of Puck Sterilized Cream, a 160-gram container of pure, high-quality cream that elevates your culinary creations to new heights. This versatile and decadent cream is a kitchen essential for both home cooks and professional chefs, adding a touch of luxury to your dishes. Elevate your cooking and baking with the decadence of Puck Sterilized Cream and enjoy the indulgence of pure, creamy goodness in every dish.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Condensed Milk &amp; Cream</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Aarong Dairy Butter</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>৳ 250</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aarong butter is a dairy product made by fresh or fermented cream or milk, to separate the butterfat from the buttermilk. It is generally used as a spread as well as in cooking, such as baking, sauce making, and pan frying. Butter consists of butterfat, milk proteins and water. Most frequently made from cows' milk, butter can also be manufactured from the milk of other mammals, including sheep, goats, buffalo, and yaks. Salt, flavorings and preservatives are sometimes added to butter. Rendering butter produces clarified butter or ghee, which is almost entirely butterfat. </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Butter &amp; Sour Cream</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Milk Vita Butter</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>৳ 250</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Butter &amp; Sour Cream</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chicken Eggs (Layer)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>12 pcs</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>৳ 119</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Egg Weight (Per Pc): 55-65 gm  Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Eggs</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chicken Eggs (Special Offer)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>12 pcs</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>৳ 109</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Eggs</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Revival Karak Masala Tea</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>৳ 170</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Tea &amp; Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Revival Karak Masala Tea (Bundle Pack) 200 gm</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2 pcs</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>৳ 340</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Tea &amp; Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Nestle Gold Corn Flakes Cereal Box</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>275 gm</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>৳ 400</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>There’s nothing like starting your day with a bowl of tasty, crispy flakes made of goodness of wholegrain  Whole Grain contains dietary fiber, Calcium helps to maintain strong bones and Iron is important for healthy red blood cells.  It contains lower amount of fat so it can be a great meal to maintain a healthy lifestyle.  Net Weight: 275g  Origin: Philippines  Marketed by Nestlé Bangladesh Limited.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Cereals</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Kellogg's Corn Flakes Original Cereal</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>475 gm</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>৳ 570</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Kellogg's Corn Flakes is a nourishing and tasty ready-to-eat breakfast cereal which is High in Iron, Vitamin C and key essential B group Vitamins such as B1, B2, B3, B6, B12 and Folate. Kellogg's Corn Flakes Original is naturally cholesterol free. It contains only 1% Fat. You can count on Kellogg's for a great tasting and convenient breakfast that is nourishing.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Cereals</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Dabur Honey</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>৳ 360</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Deemed as a top health food across the globe, Dabur Honey is a wonderful creation. The health properties of this thick golden liquid have been valued since ages. All Benefits of Honey in a teaspoon: • Weight management- Did you know you can use honey for weight loss? A spoonful of honey taken with warm water in the morning is known to aid weight management. • A healthy substitute to sugar. • It is known to be a good source of energy as its natural sugar and carbohydrates can easily be digested by the body. • Aids digestion. • Ginger and Honey, is a natural cure for cough and throat irritation. • Because of its moisturizing and nourishing properties, it keeps your skin clean and glowing. Benefit from the goodness of honey with a daily dose of Dabur Honey and treat your mind, body and soul to a healthier lifestyle. Take your first step towards building your overall positive health with the many benefits of Honey today! Find out all you need to know about Dabur Honey - One of the Best Honey Brand today!</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Honey</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Dabur Honey</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>250 gm</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>৳ 220</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Deemed as a top health food across the globe, Dabur Honey is a wonderful creation. The health properties of this thick golden liquid have been valued since ages. All Benefits of Honey in a teaspoon: • Weight management- Did you know you can use honey for weight loss? A spoonful of honey taken with warm water in the morning is known to aid weight management. • A healthy substitute to sugar. • It is known to be a good source of energy as its natural sugar and carbohydrates can easily be digested by the body. • Aids digestion. • Ginger and Honey, is a natural cure for cough and throat irritation. • Because of its moisturizing and nourishing properties, it keeps your skin clean and glowing. Benefit from the goodness of honey with a daily dose of Dabur Honey and treat your mind, body and soul to a healthier lifestyle. Take your first step towards building your overall positive health with the many benefits of Honey today! Find out all you need to know about Dabur Honey - One of the Best Honey Brand today!</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Honey</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nucella+ Chocolate Bread Spread Cocoa &amp; Almond</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>230 gm</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>৳ 315</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Introducing the indulgent Nucella Fortified Chocolate Spread in Cocoa &amp; Almond flavor, a 230 gm jar of pure delight that blends the richness of cocoa with the crunchiness of almonds. Get ready to experience a symphony of flavors and textures that's both luxurious and nourishing.  Unveil a world of decadence as you discover the Nucella Fortified Chocolate Spread. Each spoonful is a masterpiece, combining the velvety cocoa goodness with the delightful crunch of almonds. The harmonious balance between the creamy chocolate and the nutty texture creates a taste sensation that's both satisfying and irresistible.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Dips, Spreads &amp; Syrups</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nutella Hazelnut Cocoa Spread</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>350 gm</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>৳ 680</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Nutella is an inspiring tale of love and passion, combined with careful selection and processing of raw materials, spreading positive energy for families to start optimistically around the world. Nutella® enhances unique hazelnut and cocoa flavor with its unique creaminess. A small amount of this delicacy is enough to guarantee an unparalleled taste experience. Enjoy the delicacy in diverse ways starting from breakfast bread spread, shakes, to desserts and cakes or just eat it!</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Dips, Spreads &amp; Syrups</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Purnava Omega 3 Enriched Eggs</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>12 pcs</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>৳ 265</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Egg Weight (Per Pc): 60-70 gm   Naturally farm chicken eggs are little source of Omega 3, it contents about less than 1mg per egg. Whereas Purnava Omega 3 enriched eggs are produced by adding extra Alpha Tochopherol (Omega 3) and about 50% daily values can be met by taking 1 average size Omega 3 enriched egg per day. Purnava Omega 3 eggs come from hens feed completely natural vegetable feed sources and do not use any animal source. Hens farmed in friendly environment and free from Salmonella. Purnava Omega 3 egg is free of chemicals, chromium, antibiotics or hormones as well.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Energy Boosters</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Purnava Vitamin E Eggs</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>12 pcs</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>৳ 205</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Egg Weight (Per Pc): 60-70 gm  Naturally farm chicken eggs are little source of vitamin E, it contents about less than 1mg per egg. Whereas Purnava Vitamin E enriched eggs are produced by adding extra Alpha Tochopherol (Vitamin E) and about 50% daily values can be met by taking 1 average size E enriched egg per day. Purnava E eggs come from hens feed completely natural vegetable feed sources and do not use any animal source. Hens farmed in friendly environment and free from Salmonella. Purnava E egg is free of chemicals, chromium, antibiotics or hormones as well.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Energy Boosters</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ruchi Mixed Fruit Jam</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>৳ 195</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Jams &amp; Jellies</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Ruchi Orange Jam</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>৳ 195</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ruchi Orange Jam manufactured by Square Food &amp; Beverage Ltd. Ruchi Orange Jam is full of nutrition. Its tasty as well as healthy.  Ingredients: Orange pulp, pectrin, citric Acid, Sodium Benzoate.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Jams &amp; Jellies</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Snickers Chocolate</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>50 gm</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>৳ 100</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Origin: Russia The world's best-selling candy bar. Crammed with peanuts, caramel and nougat then coated with milk chocolate. Nutritional facts: Calories 12% , Fat 19%, Sugar 28%</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Chocolates</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Cadbury Dairy Milk Silk Oreo Chocolate</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>60 gm</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>৳ 150</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Product Origin:India   Description:  • Cadbury Dairy Milk Silk is all about regaling in the richness and creaminess of the chocolate. Indulge in a rich, smooth and creamy celebration.  • Silk: The classic taste of Cadbury Dairy Milk chocolates only more creamy, more smooth, more indulging.  • Cadbury Dairy Milk Silk is made with a glass and a half of milk.  • This pack is perfect to indulge in all alone or as a gift for your special someone.  • Every bar is made from 100% sustainable cocoa.  • Suitable for vegetarians.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Chocolates</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Cocola Chocolate Wafer Roll Jar</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>170 gm</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>৳ 70</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Chocolate Wafer Roll is a jar of a bunch of chocolates that you can give for a child. When you go to visit somewhere, you can take it along with you. So, get it hurry with different flavor from chaldal.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Wafers</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Nestle KitKat 2 Finger Chocolate Wafer (India)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>18 gm</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>৳ 40</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NESTLÉ KITKAT Chocolate Bar is the ideal snack for those who really value their break. Just unwrap the bar and break off one of the 2 fingers, snap it into two and savour the deliciously smooth milk chocolate.  Imported from Nestlé India</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Wafers</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Haribo Happy Cola Candy</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>80 gm</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>৳ 235</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>From America's #1-selling Gummi Bear, try delicious Happy Cola! These two-toned gummies come in a fun bottle shape and have a delcious cola taste.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Candies</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Fox's Crystal Clear Fruits Candy</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>180 gm</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>৳ 325</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Candies</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Nestle POLO Mint Roll</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>15 gm</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>৳ 15</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Presenting Nestlé POLO Mint Roll 15 gm: The Timeless Refreshment that Unleashes a Cool, Minty Wave! Experience the iconic taste of Nestlé POLO Mint Roll 15 gm, a classic mint confection that has delighted taste buds for generations. With its distinctive round shape and unmistakable cool flavor, POLO Mint Roll offers a refreshing break from the ordinary. Each roll is thoughtfully designed for easy, on-the-go enjoyment, making it the perfect companion for a quick pick-me-up or a subtle breath freshener.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Gums, Mints &amp; Mouth Fresheners</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Cavendish &amp; Harvey Clear Mint Drops</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>৳ 369</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Gums, Mints &amp; Mouth Fresheners</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Alpenliebe Juzt Jelly Snack Pack 14 pcs</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>50 gm</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>৳ 50</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Product – Jelly Candy Flavor – Strawberry and Green Mango </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Jellies &amp; Marshmallows</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Golden Garden Jelly Bean</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>150 gm</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>৳ 210</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Brand- Golden Garden Product of China Jelly beans are small bean-shaped candies with soft candy shells and thick gel interior. Primarily made of sugar and sold in a wide varsity of colors and flavors.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Jellies &amp; Marshmallows</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Samyang Hot Chicken Ramen 3X Spicy</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>140 gm</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>৳ 163</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origin: Made in Korea </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Noodles</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Samyang Hot Chicken Ramen Stew Noodles</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>145 gm</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>৳ 150</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>The Stew Type Flavor Of Samyang Noodles Has A Flakes Packet, Which Goes Into The Water At The Same Time As The Noodles. Draining The Water From The Noodles Takes A Tiny Bit More Precision As You Don't Want To Dump Out Any Of Those Hydrated Veggies. Country Of Origin : Korea 100% Halal.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Noodles</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Dekko Honey &amp; Kalo Zeera Biscuit</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>144 gm</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>৳ 50</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Munchy's Oat Krunch Chunky Hazelnut Cookies</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>208 gm</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>৳ 450</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Ruchi Chanachur Bar-B-Q</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>22 gm</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>৳ 10</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RUCHI BBQ Chanachur is the pioneer of barbecue-flavored chanachur in Bangladesh. Its smoky grilled flavor is unique, distinctive and mouthwatering - which helps it retain the top spot at the center of every chat group across all age groups. RUCHI BBQ is crispier, crunchier and tastier </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Local Snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ruchi Bbq Chanachur</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>300 gm</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>৳ 100</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>RUCHI BBQ Chanachur is the pioneer of barbecue-flavored chanachur in Bangladesh. Its smoky grilled flavor is unique, distinctive and mouthwatering - which helps it retain the top spot at the center of every chat group across all age groups. RUCHI BBQ is crispier, crunchier and smarter - and with it, gossiping and leisure periods can be enjoyed far better.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Local Snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Kurkure Naughty Tomato Chips</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>37 gm</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>৳ 25</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Kurkure Naughty Tomato Chips 37 gm are a zesty and tangy snack that adds a playful twist to your snacking experience. These corn-based snacks are characterized by their unique twisted shape and a lively tomato seasoning that delivers a burst of tanginess and a hint of spiciness with every bite. whenever you crave a lively and satisfying bite, these chips are designed to tickle your taste buds. Enjoy the vibrant and satisfying crunch of Kurkure Naughty Tomato Chips and add a dash of playfulness to your snacking moments.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Chips &amp; Pretzels</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Ruchi BBQ Potato Crackers</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>25 gm</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>৳ 15</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>RUCHI Potato Crackers - Bar-B-Q is a prominent flavor in the RUCHI Potato Crackers product line. Devoid of artificial ingredients and preservatives, it has an amazing Bar-B-Q flavor, and is enriched with protein, iron, and much more! Mixing the latest flavor trends with the invigorating crisp, Ruchi Bar-B-Q is poised to be the choice of chips across all age groups.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Chips &amp; Pretzels</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Dekko Marie Classic Biscuit</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>222 gm</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>৳ 60</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Plain Biscuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Munchy’s Oat Krunch Breakfast Chia Seeds &amp; Milk Biscuit</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>192 gm</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>৳ 410</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Healthy biscuits that are tasty, and tasty biscuits that are healthy. Just like the Oat Krunch biscuits, made with healthy oats and tasty ingredients. Oat Krunch contains sources of fiber that are trans-fat free with no preservatives and conveniently packed for whenever and wherever life takes. It is the perfect crunch for everyone! Have it all with Oat Krunch!  Oats are rich in beta-glucan powers that can help in lowering cholesterol levels, blood pressure, risk of coronary heart disease and is a healthy source of fiber.  Contains: Wheat, Soybeans, Nuts.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Plain Biscuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ispahani Bakery Fresh Sweet Toast Biscuit</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>150 gm</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>৳ 50</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Bakery Fresh Sweet Toast is perfectly sweet and crunchy. A fantastic tea time snack.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Toast &amp; Bakery Biscuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Olympic Premium Toast Biscuit</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>185 gm</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>৳ 50</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Toast &amp; Bakery Biscuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Olympic Tim Tim Orange Biscuit</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>40 gm</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>৳ 10</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Cream Biscuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Munchy's Cream Cracker Biscuits</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>300 gm</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>৳ 520</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Cream Biscuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Barilla Penne Rigate N.73 Pasta</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>৳ 360</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Origin: Italy Barilla PENNE RIGATE is one of the most versatile pasta, known for its adaptability with recipes and occasions, from a traditional family lunch or official grown dinner. Try Penne Rigate with easy tomato sauce, vegetables, with or without meat and enjoy an authentic Italian meal.  • TRUSTED: N°1 IN ITALY with over 140 years of craftsmanship, making high quality pasta that COOKS PERFECTLY EVERY TIME.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Pasta &amp; Macaroni</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Barilla Pasta Sauce Jar Arrabbiata</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>৳ 599</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Origin: Italy Barilla ARRABBIATA combines carefully selected fresh tomatoes, garlic, and parsley with a tantalizing touch of crushed green chili peppers to create authentic Italian meals with a memorable kick. Simply combine with your favourite pasta for a delicious meal.  • TRUSTED: N°1 IN ITALY with over 140 years of craftsmanship, making high quality pasta that COOKS PERFECTLY EVERY TIME.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Pasta &amp; Macaroni</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Knorr Soup Chicken Corn</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>24 gm</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>৳ 45</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh Manufacturer: Unilever Bangladesh Ltd. Classic chicken corn soup with carefully chosen real chicken and the best-quality vegetables. Just add one egg and enjoy restaurant-like taste at home. No added preservatives Low-fat. Halal certified Ingredients: Corn starch, sugar, salt, dehydrated corn bits, soy protein, dehydrated chicken meat, hydrolyzed vegetable protein, hydrogenated vegetable oil, flavour enhancer, dehydrated leeks, spices, chicken and corn flavours (Nature identical and artificial) May contain a small amount of gluten, shrimp, celery, mustard, milk and nuts. Nutrition: Energy, Protein, fat(saturated and trans) , carbohydrates (sugar and dietary fibre), sodium</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Soups</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Nestle Maggi Healthy Soup Thai Sachet</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>35 gm</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>৳ 50</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Embark on a gastronomic journey to the vibrant streets of Thailand with Nestlé Maggi Healthy Soup Thai Sachet. In a 35 gm sachet, this culinary gem encapsulates the exotic essence of Thai cuisine, delivering a taste of authentic flavors right to your table.  Maggi Healthy Soup Thai Sachet captures the essence of Thai gastronomy with a blend of aromatic herbs, spices, and carefully selected ingredients. Each spoonful transports you to bustling Thai markets and bustling street food stalls.  Bringing the magic of Thai cuisine to your kitchen has never been easier. With a simple preparation process, this soup sachet allows you to relish the rich taste of Thai herbs and spices without compromising on authenticity.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Soups</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Almonds (Kath Badam)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>100 gm</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>৳ 139</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Almonds are a fantastic source of antioxidants. Nuts are low in carbs but high in healthy fats, protein and fiber. The magnesium in almonds may additionally help lower blood pressure levels. Almonds Can Lower Cholesterol Levels. Eating Almonds Reduces Hunger, Lowering Your Overall Calorie Intake Almonds boast an impressive nutrient profile. A 1-ounce (28-gram) serving of almonds contains : • Fiber: 3.5 grams • Protein: 6 grams • Fat: 14 grams (9 of which are monounsaturated) • Vitamin E: 37% of the RDI • Manganese: 32% of the RDI • Magnesium: 20% of the RDI • They also contain a decent amount of copper, vitamin B2 (riboflavin) and phosphorus.</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Popcorn &amp; Nuts</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Act II Popcorn Golden Sizzle</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>50 gm</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>৳ 25</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Origin: India Description This is a Vegetarian product. • Goodness of corn • Hot and fresh popcorn • 0(Zero)g trans fats • Prepare in 3 Minutes</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Popcorn &amp; Nuts</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Bangas Grand Choice Salted Biscuit</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>70 gm</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>৳ 20</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Ingredients : Flour, Sugar, Salt, Butter, Milk, Cumin, Egg Powder, Nuts Powder, Natural Colouring Agent, Preservatives and Flavours.</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Salted Biscuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Olympic Tip Crispy Salted Biscuits</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>60 gm</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>৳ 15</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Salted Biscuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Wonder Muffin Cake 15 gm</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>6 pcs</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>৳ 60</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origin: Bangladesh Manufacturer: Habiganj Agro Ltd. Chocolate muffin cake. Ingredients: Flour, sugar, sunflower oil, egg, salt, milk solids, cocoa solids, starch, xanthan gum, leavening agentsঃ sodium bicarbonate, aluminium sulphate, sodium aluminium phosphate, dextrose, permitted emulsifier, mono and diglycerides of fatty acids, sodium stearoyl lactate, sorbic acid, added chocolate and vanilla flavor. Nutrition: Fat 31% , carbohydrate 11% , Cholesterol 23% </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Cakes</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Olympic Dry Cake Biscuit</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>290 gm</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>৳ 150</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Cakes</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ahmed White Vinegar</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>325 ml</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>৳ 50</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>INGREDIENTS: Food Grade Acetic Acid (E-260) &amp; Distilled Water.</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Salad Dressing</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Bragg Organic Apple Cider Vinegar</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>473 ml</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>৳ 819</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Origin: USA Manufacturer: Bragg Live Food Products Bragg® Organic Apple Cider Vinegar is made from delicious organically grown apples and contains the amazing ‘Mother’ of vinegar. The ‘Mother’ consists of strands of proteins, enzymes, and friendly bacteria that give the product its murky appearance. ACV for your daily dose of wellness:   • Helps maintain a healthy weight range • Delivers prebiotics to support a healthy gut • Supports a healthy immune system • Helps maintain normal glucose levels</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Salad Dressing</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Revival Karak Masala Tea</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>৳ 170</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Tea</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Revival Karak Masala Tea (Bundle Pack) 200 gm</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2 pcs</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>৳ 340</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Tea</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>RC Q Lemon Pet</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>250 ml</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>৳ 25</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>600 ml</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>৳ 50</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Highlights: ORIGINAL FLAVOUR: Enjoy the deliciously refreshing original cola flavour of Coca-Cola BEST ENJOYED ICE-COLD: Enjoy this soft drink ice-cold for maximum refreshment YOUR MEAL PARTNER: Make meals tastier with a combo of your favourite dish and a chilled glass of Coke SHARE A COKE: Enjoy the real magic of everyday moments and share this cold drink with family &amp; friends ANYTIME &amp; ANYWHERE: Enjoy Coca-Cola’s crisp, delicious taste anytime with meals, at parties, or family gatherings RECYCLABLE BOTTLES: Coca-Cola comes in 100% recyclable bottle packaging.  Description: Happiness is about creating Real Magic from everyday moments, turning up the energy during an afternoon lull, during those hot and long exhausting days with the crisp, delicious taste of Coca-Cola Original. Make your meals tastier &amp; share a Coke ice-cold for maximum refreshment. Enjoy this carbonated soft drink while playing fun games, binge-watching your favourite series, listening to your favourite songs and making the most of your break moments. The oh-so refreshing fizz and original taste of Coca-Cola soft drink make life’s special moments a little more special.</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Nestle Coffee Mate Creamer</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>৳ 1,052</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Elevate your coffee experience with Nestlé Coffee Mate Creamer, a 1-kilogram canister of creamy goodness that transforms your daily cup of coffee into a rich and indulgent treat. Specially crafted to enhance your coffee's flavor and texture, this creamer is a beloved addition to coffee enthusiasts worldwide. With its versatility, convenience, and trusted quality, it's no wonder why Coffee Mate has become a beloved addition to coffee cups around the world. Experience the richness and convenience of Nestlé Coffee Mate Creamer and savor the perfect coffee moment, your way.</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Nescafe Original Coffee (Indonesia)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>৳ 1,159</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nescafe Original Coffee Savor the wonderfully rich and refreshing aroma of this medium-dark roast.Quality beans has been blend then roast them to medium-dark deliciousness to deliver the pleasurable experience you’ve come to expect from Nescafe Original Coffee. Let the intense taste of Nescafe Original Coffee awaken your senses to new opportunities as the rich aroma of this distinctive blend unfolds. </t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Chaldal Sippy Orange Drinks</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>৳ 249</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sippy is your ultimate hydration partner. Chaldal Sippy Powder Drinks contain all the essential vitamins and minerals, including vitamin A, vitamin D, vitamin C, iodine, zinc, and iron, necessary for your body to function properly. Sippy makes drinking water more enjoyable, ensuring that your family stays hydrated. No need to add sugar; simply mix the powder with water and enjoy a delicious drink on the go. </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Syrups &amp; Powder Drinks</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Chaldal Sippy Orange Drinks 500 gm And Crown Dabbas Dates 1 kg (Combo Offer)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>৳ 769</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Syrups &amp; Powder Drinks</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Pran Drinko Litchi Juice</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>250 ml</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>৳ 30</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Juice</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Bruvana Sports+ Electrolyte Beverage (Pineapple Flavor)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>250 ml</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>৳ 35</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Bruvana Sports+ Electrolyte Beverage Pineapple drink is a refreshing and hydrating beverage designed for athletes and active individuals. With a delicious Pineapple flavor, it replenishes essential electrolytes lost during exercise and provides energy for optimal performance. It contains no artificial colors, flavors, or sweeteners and is perfect for pre, during, or post-workout hydration.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Juice</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Mum Drinking Water</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>5 ltr</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>৳ 80+৳3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Mum Drinking Water</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2 ltr</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>৳ 40</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUM is a pure natural mineral drinking water. People have trust on MUM because, MUM strictly follows the guideline &amp; standard specification of quality level of WHO, IBWA, ICDDRB, Food and Nutrition Dept. of DU. </t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Chickpea Flour (Boot Beshon)</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>৳ 69</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Flour</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Fresh White Flour (Maida)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2 kg</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>৳ 145</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Fresh White Flour, commonly known as Maida, is a finely milled and refined wheat flour. The 2 kg packaging indicates that it contains approximately 2 kilograms of white flour.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Flour</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Date Crown Lulu Dates</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>৳ 249</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Nuts &amp; Dried Fruits</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Ajwa Premium Dates</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>৳ 693</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Origin: Saudi Arabia Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Free Ajwa dates Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm Ajwa Dates (0.25 cup) contains 30g total carbs, 27g net carbs, 0g fat, 1g protein, and 120 calories</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Nuts &amp; Dried Fruits</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Cadbury Cocoa Powder Pack</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>125 gm</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>৳ 470</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Baking Ingredients</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Goalini Plus Condensed Milk</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>400 gm</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>৳ 105</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brand- Goalini Product type- Condensed Milk 400gm Technology AVP Switzerland. Ingredient: Skimmed Milk Powder, whey Powder, Super Refined Sugar, Pure Vegetable Fat8.0%, Lactose &amp; RO Treated Water. </t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Baking Ingredients</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Cake Mold</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>3 pcs</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>৳ 135</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Baking Tools</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Small Measurement Mug</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>৳ 179</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">500 ml, Material: Heavy plastic, Made in china </t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Baking Tools</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Ahmed Custard Powder</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>160 gm</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>৳ 85</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Ingredients: Corn Starch, Permitted Food Color (Sunset Yellow FCF E-110) &amp; Flavor.</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Baking &amp; Dessert Mixes</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Foster Clark's Baking Powder</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>225 gm</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>৳ 335</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Foster Clark's Baking Powder specially prepared to help you make delicious sweet dishes and various sauces to garnish your savory dishes. To obtain the fine light texture which you desire in your cakes and pastries, replace one-eighth of the flour with Foster Clark's Baking Powder.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Baking &amp; Dessert Mixes</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>AG Food Chicken Salami 11-12 pcs</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>৳ 250</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Country Of Origin: Bangladesh</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Chicken Snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>AG Food Chicken Mini Samosa</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>250 gm</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>৳ 220</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>23-25 pcs crispy and delicious Chicken Mini Samosa.Storage:Keep frozen (-18°C or below). Do not refreeze once defrosted.Filling: Chicken meat, Salt, Sugar, Spices, Green Chili, Onion, and Soybean Oil.Pastry: Flour, Corn Starch, Salt, Water &amp; Soybean Oil.</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Chicken Snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Golden Harvest Deshi Paratha 20 pcs</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1300 gm</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>৳ 310</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Get a classic golden frozen paratha family pack from us as your daily breakfast. One pack covers for one family. Hassle-free and easy to serve. Just tear off the packet and put it on the griddle for a few minutes and then serve it. It’s a good food for your good health.</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Frozen Parathas &amp; Roti</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Jhatpot Low Fat Paratha 1200 gm</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>20 pcs</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>৳ 250</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Frozen Parathas &amp; Roti</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Golden Harvest Mini Singara 20 pcs</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>300 gm</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>৳ 125</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh  Manufacturer: Golden Harvest Agro industries Ltd.  Delicious mini aloo singara.  Halal certified  HACCP certified  ISO certified  Ingredients: Potato, onion, nuts, ginger, garlic, onion, chili, cumin, turmeric, cinnamon, coriander leaf, soybean oil, wheat flour, sugar, water, black cumin seeds.</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Vegetable Snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Golden Harvest Aloo Puri 10 pcs</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>454 gm</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>৳ 140</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh  Manufacturer: Golden Harvest Agro industries Ltd.  Delicious aloo puri  Halal certified  HACCP certified  ISO certified  Ingredients: Potato, soybean oil, salt, sugar, ginger, garlic, onion, mixed spices, bay leaf, coriander leaf, MSG, chili, cinnamon powder, wheat flour, margarine, water.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Vegetable Snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Hibiscus Mushrooms Choice Whole Can</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>425 gm</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>৳ 179</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Hibiscus Mushrooms Choice Whole are a gourmet delight, featuring carefully selected whole mushrooms that have been harvested at their peak of freshness. These mushrooms are packed in a 425-gram can to preserve their quality and flavor. Renowned for their versatility and delicious taste, they serve as a culinary canvas to elevate your dishes to new heights of flavor and presentation.</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Mushroom Cans</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Quality Beef Classic Sausage</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>280 gm</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>৳ 370</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Antibiotic-free, Halal Certified, Own Farmed chicken, ISO Certified, No Preservatives, MBM Free</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Beef Snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Quality Canadian Beef Bacon</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>৳ 320</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antibiotic-free, Halal Certified, Own Farmed chicken, ISO Certified, No Preservatives, MBM Free </t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Beef Snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Green Park Baby Corn</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>425 gm</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>৳ 150</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Good for Pasta, Piza, Noodles, Sandwich 2. Halal </t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Vegetable Cans</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Garden Fresh Whole Baby Corn</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>425 gm</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>৳ 115</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Garden Fresh Whole Baby Corn, a delicious and nutritious meal option for any time of day. These baby corns are made with the finest ingredients and are sure to satisfy your cravings. Each jar contains 425 grams of baby corns, providing you with a generous serving size that can be shared with family and friends. The baby corns are made by Garden Fresh, a trusted brand known for its high-quality products.</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Vegetable Cans</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Nautilus Lite Sandwich Tuna In Spring Water</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>165 gm</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>৳ 323</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Nautilus Lite Sandwich Tuna in Spring Water is a delicious and wholesome seafood option that combines the natural goodness of tuna with the purity of spring water. This tuna is thoughtfully sourced and prepared to offer a healthy and convenient protein source that's perfect for creating sandwiches, salads, wraps, and more. Packaged in a convenient 165-gram can, Nautilus Lite Sandwich Tuna in Spring Water is your go-to choice for a light and satisfying meal or snack.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Fish Cans</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Nautilus Lite Tuna Steak In Spring Water</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>165 gm</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>৳ 319</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Nautilus Lite Tuna Steak in Spring Water is a premium seafood product that brings the exquisite taste of tender tuna steaks, preserved in pristine spring water, to your culinary creations. These tuna steaks are expertly processed and thoughtfully packaged in a 165-gram can, making them a versatile and nutritious addition to your meals. With their succulent texture and natural flavor, Nautilus Lite Tuna Steak in Spring Water allows you to savor the pure essence of tuna in your favorite dishes.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Fish Cans</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Figaro Stuffed Green Olive</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>340 gm</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>৳ 150</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Canned Fruits &amp; Sweets</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Figaro Sliced Green Olives</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>340 gm</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>৳ 150</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Canned Fruits &amp; Sweets</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Soft Shell Crab Tempura</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>৳ 599</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Fish Snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>OceanRia Fish Sandwich</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>৳ 599</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Origin: Malaysia</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Fish Snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Sugar Free Gold 100 Pellets</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>10 gm</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>৳ 120</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Sugar Free Gold, available in a convenient 110-pellet pack with a total weight of 11 grams, is your perfect companion in maintaining a sugar-free and low-calorie lifestyle. It is a trusted artificial sweetener that provides a delightful sweetness without the calories and health concerns associated with regular sugar. Make the switch to this trusted artificial sweetener and enjoy your favorite beverages and dishes without compromising on taste or your health goals. Trust in Sugar Free Gold to provide you with the sweetness you desire without the calories you want to avoid.</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Diabetic Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Bashundhara Brown Flour (Lal Atta)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>৳ 78</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Bashundhara Brown Flour, also known as Lal Atta, is a type of whole wheat flour that is commonly used in South Asian cuisine. It is made from grinding whole wheat grains, including the bran, germ, and endosperm, which gives it a brown color and a slightly coarser texture compared to refined wheat flour.</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Diabetic Food</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Chaldal_scraper/scrapped_data/Chaldaal_rawdata_v1.0.xlsx
+++ b/Chaldal_scraper/scrapped_data/Chaldaal_rawdata_v1.0.xlsx
@@ -1749,7 +1749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1814,7 +1814,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ajwa Premium Dates</t>
+          <t>Maryam Premium Dates</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1824,12 +1824,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>৳ 693</t>
+          <t>৳ 599</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Origin: Saudi Arabia Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Free Ajwa dates Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm Ajwa Dates (0.25 cup) contains 30g total carbs, 27g net carbs, 0g fat, 1g protein, and 120 calories</t>
+          <t>Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1895,24 +1895,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Date Crown Lulu Dates</t>
+          <t>Crown Dabbas Dates</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>400 gm</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>৳ 249</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
-        </is>
-      </c>
+          <t>৳ 549</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Popular</t>
@@ -1922,24 +1918,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ajwa Premium Dates</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>500 gm</t>
-        </is>
-      </c>
+          <t>Chaldal Sippy Orange Drinks 500 gm And Crown Dabbas Dates 1 kg (Combo Offer)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>৳ 693</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Origin: Saudi Arabia Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Free Ajwa dates Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm Ajwa Dates (0.25 cup) contains 30g total carbs, 27g net carbs, 0g fat, 1g protein, and 120 calories</t>
-        </is>
-      </c>
+          <t>৳ 769</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Popular</t>
@@ -2053,24 +2041,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Date Crown Lulu Dates</t>
+          <t>Crown Dabbas Dates</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>400 gm</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>৳ 249</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
-        </is>
-      </c>
+          <t>৳ 549</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>Dates (Khejur)</t>
@@ -2080,24 +2064,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ajwa Premium Dates</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>500 gm</t>
-        </is>
-      </c>
+          <t>Chaldal Sippy Orange Drinks 500 gm And Crown Dabbas Dates 1 kg (Combo Offer)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>৳ 693</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Origin: Saudi Arabia Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Free Ajwa dates Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm Ajwa Dates (0.25 cup) contains 30g total carbs, 27g net carbs, 0g fat, 1g protein, and 120 calories</t>
-        </is>
-      </c>
+          <t>৳ 769</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Dates (Khejur)</t>
@@ -2117,7 +2093,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>৳ 339</t>
+          <t>৳ 329</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2215,288 +2191,296 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fresh Haleem Mix 200 gm And Halim Meat (Beef) ± 20 gm 300 gm (Combo Offer)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>Horina Chingri (Shrimp) 60-70 pcs ±15 gm</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>250 gm</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>৳ 259</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>৳ 229</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Before Processing this product live weight was 270 gm and the product quantity around 60-70 pcs.  Source: CULTURED /GHER  Horina Chingri Shiny, moist, and even slippery skin.In Khulna &amp; Shatkhira area best quality Horina Chingri is available. </t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Meat</t>
+          <t>Frozen Fish</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Broiler Chicken Skin On ± 50 gm</t>
+          <t>Bagda Chingri (Shrimp) 35-40 pcs ±30 gm</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>৳ 339</t>
+          <t>৳ 469</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Before processing this product's live weight was 1.5-1.55 kg.  Broiler chickens are raised primarily for meat rather than to lay eggs. These poultry are often white and are bred to be large and very healthy, often with more breast meat for the consumer market. Broiler chicken breeds grow very fast and offer good value in terms of protein and calories.</t>
+          <t xml:space="preserve">Before Processing this product live weight was 520 gm and the product quantity around 35-40 pcs.  Source:CULTURED /GHER  English Name: Tiger Prawn. Bengali Name: Bagda Chingri.Tiger prawns are large-bodied . Tiger prawns get their common name from the stripes that cover their shell..In Khulna &amp; Satkhira area best quality Tiger Prawn fish available. </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Meat</t>
+          <t>Frozen Fish</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tofu</t>
+          <t>Broiler Chicken Skin On ± 50 gm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>150 gm</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>৳ 69</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>৳ 329</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Before processing this product's live weight was 1.5-1.55 kg.  Broiler chickens are raised primarily for meat rather than to lay eggs. These poultry are often white and are bred to be large and very healthy, often with more breast meat for the consumer market. Broiler chicken breeds grow very fast and offer good value in terms of protein and calories.</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tofu &amp; Meat Alternatives</t>
+          <t>Meat</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hibiscus Mushrooms Choice Whole Can</t>
+          <t>Cock Chicken Skin Off ± 25 gm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>425 gm</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>৳ 179</t>
+          <t>৳ 299</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hibiscus Mushrooms Choice Whole are a gourmet delight, featuring carefully selected whole mushrooms that have been harvested at their peak of freshness. These mushrooms are packed in a 425-gram can to preserve their quality and flavor. Renowned for their versatility and delicious taste, they serve as a culinary canvas to elevate your dishes to new heights of flavor and presentation.</t>
+          <t xml:space="preserve">Before processing this product's live weight was 900-950 gm.  After Processed Weight: 500-550 gm. A cock is a sexually mature chicken over one year of age, also known as a rooster. Bonus definitions: A cockerel is a young male chicken that is not yet one year old. A pullet is a young female chicken that is fully feathered, is less than one year of age, and has not yet laid an egg. </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tofu &amp; Meat Alternatives</t>
+          <t>Meat</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fargo Safe Dry Fish (Churi Shutki)</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>100 gm</t>
+          <t>150 gm</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>৳ 305</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Fargo is introducing safe and Organic Churi Dry Fish (from World Bank, IFAD &amp; PKSF supported Safe Dry Fish Project). This quality protein and nutrient rich sea dry fish has iodine*, high-quality protein, OMEGA-3 Fatty Acid, Zinc, Calcium, copper and selenium. It is 100% natural and hygienically processed with no added preservatives.</t>
-        </is>
-      </c>
+          <t>৳ 69</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dried Fish</t>
+          <t>Tofu &amp; Meat Alternatives</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kazi Farms Kitchen Kechki Dried Fish</t>
+          <t>Hibiscus Mushrooms Choice Whole Can</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>125 gm</t>
+          <t>425 gm</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>৳ 280</t>
+          <t>৳ 179</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Kazi Farms Kitchen Kechki Dried Fish is a high-quality and nutritious food product made from fresh and clean Kechki fish that are caught from freshwater sources. The fish are carefully cleaned, salted, and dried using traditional methods to preserve their taste and nutritional value</t>
+          <t>Hibiscus Mushrooms Choice Whole are a gourmet delight, featuring carefully selected whole mushrooms that have been harvested at their peak of freshness. These mushrooms are packed in a 425-gram can to preserve their quality and flavor. Renowned for their versatility and delicious taste, they serve as a culinary canvas to elevate your dishes to new heights of flavor and presentation.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dried Fish</t>
+          <t>Tofu &amp; Meat Alternatives</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cumin (Jira)</t>
+          <t>Fargo Safe Dry Fish (Chingri Shutki)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>100 gm</t>
+          <t>250 gm</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>৳ 119</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>৳ 290</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fargo is introducing safe and Organic Chingri Dry Fish (from World Bank, IFAD &amp; PKSF supported Safe Dry Fish Project). This quality protein and nutrient rich sea dry fish has iodine*, high-quality protein, OMEGA-3 Fatty Acid, Zinc, Calcium, copper and selenium. It is 100% natural and hygienically processed with no added preservatives.</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Spices</t>
+          <t>Dried Fish</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cardamom (Elachi) Whole</t>
+          <t>Fargo Safe Dry Fish (Churi Shutki)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>50 gm</t>
+          <t>100 gm</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>৳ 179</t>
+          <t>৳ 305</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Elach, Cardamom (Elachi) is a spice with an intense, slightly sweet flavor that some people compare to mint. Its antioxidant and diuretic properties may lower blood pressure.The compounds in cardamom may help fight cancer cells. Elach is rich in compounds that may fight inflammation. Cardamom has been used for thousands of years to help with digestion.The use of cardamom to treat bad breath and improve oral health is an ancient remedy. Compounds in cardamom may help increase airflow to your lungs and improve breathing. When taken in powder form, cardamom may lower blood sugar.</t>
+          <t>Fargo is introducing safe and Organic Churi Dry Fish (from World Bank, IFAD &amp; PKSF supported Safe Dry Fish Project). This quality protein and nutrient rich sea dry fish has iodine*, high-quality protein, OMEGA-3 Fatty Acid, Zinc, Calcium, copper and selenium. It is 100% natural and hygienically processed with no added preservatives.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Spices</t>
+          <t>Dried Fish</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fresh Refined Sugar</t>
+          <t>Cumin (Jira)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>100 gm</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>৳ 146</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fresh Refined sugar is a modern processes of without touching hand to protect the health of assurance. Fresh refined sugar is completely acid, fecal residues free and neat and clean, healthy, granulated sugar.  </t>
-        </is>
-      </c>
+          <t>৳ 119</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Salt &amp; Sugar</t>
+          <t>Spices</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fresh Super Premium (Vacuum) Salt</t>
+          <t>Cardamom (Elachi) Whole</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>50 gm</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>৳ 37</t>
+          <t>৳ 179</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fresh Super Premium Salt is a high-quality salt product that comes in a 1 kg packaging. This salt is typically labeled as "Super Premium" to denote its superior quality and purity.</t>
+          <t>Elach, Cardamom (Elachi) is a spice with an intense, slightly sweet flavor that some people compare to mint. Its antioxidant and diuretic properties may lower blood pressure.The compounds in cardamom may help fight cancer cells. Elach is rich in compounds that may fight inflammation. Cardamom has been used for thousands of years to help with digestion.The use of cardamom to treat bad breath and improve oral health is an ancient remedy. Compounds in cardamom may help increase airflow to your lungs and improve breathing. When taken in powder form, cardamom may lower blood sugar.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Salt &amp; Sugar</t>
+          <t>Spices</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Miniket Rice Premium (Boiled) ± 50 gm</t>
+          <t>Fresh Refined Sugar</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5 kg</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>৳ 379</t>
+          <t>৳ 146</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chaldal is offering the most popular Rice in Bangladesh now available at affordable price. Rice Type: Miniket Premium.  Net Weight 5 kg.  </t>
+          <t xml:space="preserve">Fresh Refined sugar is a modern processes of without touching hand to protect the health of assurance. Fresh refined sugar is completely acid, fecal residues free and neat and clean, healthy, granulated sugar.  </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Salt &amp; Sugar</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chinigura Rice Premium</t>
+          <t>Fresh Super Premium (Vacuum) Salt</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2506,43 +2490,51 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>৳ 149</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>৳ 37</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fresh Super Premium Salt is a high-quality salt product that comes in a 1 kg packaging. This salt is typically labeled as "Super Premium" to denote its superior quality and purity.</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Salt &amp; Sugar</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chola Boot (Chick Peas)</t>
+          <t>Miniket Rice Premium (Boiled) ± 50 gm</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>5 kg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>৳ 119</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>৳ 379</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chaldal is offering the most popular Rice in Bangladesh now available at affordable price. Rice Type: Miniket Premium.  Net Weight 5 kg.  </t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Dal or Lentil</t>
+          <t>Rice</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Moshur Dal (Deshi)</t>
+          <t>Chinigura Rice Premium</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2555,321 +2547,325 @@
           <t>৳ 149</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">These skinless, red lentils are small and round. They are fast-cooking and don't need to be soaked. They are often cooked, mashed and added to curries and soups. Masoor is a very versatile lentil and has a creamy texture and warming flavor. </t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Dal or Lentil</t>
+          <t>Rice</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fresh Haleem Mix 200 gm And Halim Meat (Beef) ± 20 gm 300 gm (Combo Offer)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
+          <t>Chola Boot (Chick Peas)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>৳ 259</t>
+          <t>৳ 119</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ready Mix</t>
+          <t>Dal or Lentil</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Radhuni Chicken Masala</t>
+          <t>Moshur Dal (Deshi)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20 gm</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>৳ 20</t>
+          <t>৳ 149</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Radhuni Chicken Masala mix helps you prepare rich and aromatic Chicken Curry for an appetizing and flavorful dish in an easy manner at the comfort of your home. Serving for 7-8 people, this 20gm convenient pack is ideal for 1 KG size chicken.</t>
+          <t xml:space="preserve">These skinless, red lentils are small and round. They are fast-cooking and don't need to be soaked. They are often cooked, mashed and added to curries and soups. Masoor is a very versatile lentil and has a creamy texture and warming flavor. </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ready Mix</t>
+          <t>Dal or Lentil</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Radhuni Shemai</t>
+          <t>Radhuni Biryani Masala</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>40 gm</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>৳ 45</t>
+          <t>৳ 60</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Radhuni shemai has superb taste. it is smooth, lean &amp; thin and easy to prepare. Radhuni shemai is hygienically manufactured from finest quality flour which ensures delicious jorda shemai, milk shemai &amp; falooda.</t>
+          <t>Specially made mixed spices for mutton, beef, and chicken biryani. The mixing of different spices maintains the standard recipe to prepare delicious Biryani.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Shemai &amp; Suji</t>
+          <t>Ready Mix</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dekko Shahi Shemai</t>
+          <t>Radhuni Chicken Masala</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>180 gm</t>
+          <t>20 gm</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>৳ 40</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>৳ 20</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Radhuni Chicken Masala mix helps you prepare rich and aromatic Chicken Curry for an appetizing and flavorful dish in an easy manner at the comfort of your home. Serving for 7-8 people, this 20gm convenient pack is ideal for 1 KG size chicken.</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Shemai &amp; Suji</t>
+          <t>Ready Mix</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Chickpea Flour (Boot Beshon)</t>
+          <t>Dekko Shahi Shemai</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>180 gm</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>৳ 69</t>
+          <t>৳ 40</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Special Ingredients</t>
+          <t>Shemai &amp; Suji</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nutmeg (Jayfal) Whole</t>
+          <t>Cock Vermicelli (Shemai)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5 pcs</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>৳ 59</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>৳ 45</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Cock Vermicelli (Shemai) made of pure flour. Its very tasty and healthy. Cock Vermically (Shemai) can be the nice dessert for your family.  Manufactured by: Hashem Foods Ltd.</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Special Ingredients</t>
+          <t>Shemai &amp; Suji</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Rupchanda Fortified Soyabean Oil</t>
+          <t>Chickpea Flour (Boot Beshon)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5 ltr</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>৳ 800</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>First Vitamin A fortified Soyabean Oil.  Increases immunity.  Strengthens bone &amp; teeth.</t>
-        </is>
-      </c>
+          <t>৳ 69</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>Special Ingredients</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Rupchanda Fortified Soyabean Oil</t>
+          <t>Nutmeg (Jayfal) Whole</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2 ltr</t>
+          <t>5 pcs</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>৳ 328</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21 years of heritage.  First Vitamin A fortified Soyabean Oil.  Increases immunity.  Strengthens bone &amp; teeth. </t>
-        </is>
-      </c>
+          <t>৳ 59</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>Special Ingredients</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ahmed White Vinegar</t>
+          <t>Rupchanda Fortified Soyabean Oil</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>325 ml</t>
+          <t>2 ltr</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>৳ 50</t>
+          <t>৳ 328</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>INGREDIENTS: Food Grade Acetic Acid (E-260) &amp; Distilled Water.</t>
+          <t xml:space="preserve">21 years of heritage.  First Vitamin A fortified Soyabean Oil.  Increases immunity.  Strengthens bone &amp; teeth. </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Colors &amp; Flavours</t>
+          <t>Oil</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Radhuni Kasundi</t>
+          <t>Fresh Fortified Soyabean Oil</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>285 ml</t>
+          <t>5 ltr</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>৳ 65</t>
+          <t>৳ 800</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Kasundi is a protein-rich, spicy relish made from mustard seeds. A condiment and a taste-enhancer. Kasundi brings out the best taste in whatever it is paired up with: seasonal green fruits, snacks such as “shingara” &amp; “pakora”. Recent use of this condiment is in the preparation of “Shorshe Ilish”- a famous traditional recipe in Bengali cuisine &amp; even as salad dressings. A dash of Radhuni Kasundi with any food will leave your taste buds tingling with joy.</t>
+          <t>Fresh Fortified Soyabean Oil follows 3 steps of refining process-Perfect Degumming &amp; Neutralization, Balanced De-colorization and Five steps Deodorization to ensure right ratio of Omega 3 &amp; 6 and intact Beta-carotene in Soyabean Oil. Fresh soyabean oil contain vitamin A. Its fresh and healthy.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Colors &amp; Flavours</t>
+          <t>Oil</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pran Premium Ghee</t>
+          <t>Pran Synthetic Vinegar</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>100 gm</t>
+          <t>650 ml</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>৳ 190</t>
+          <t>৳ 55</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Origin: Bangladesh.</t>
+          <t>Pran synthetic vinegar is an acitic liquid which has different uses. It can be used as a food preservative.We can also use it in food preparation and salad dressing.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ghee</t>
+          <t>Colors &amp; Flavours</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Parboti Ghee</t>
+          <t>Ahmed White Vinegar</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>300 gm</t>
+          <t>325 ml</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>৳ 500</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>৳ 50</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>INGREDIENTS: Food Grade Acetic Acid (E-260) &amp; Distilled Water.</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ghee</t>
+          <t>Colors &amp; Flavours</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Chia Seed</t>
+          <t>Pran Premium Ghee</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2879,2973 +2875,3023 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>৳ 89</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>৳ 190</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh.</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Premium Ingredients</t>
+          <t>Ghee</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fit Food Chia Seed</t>
+          <t>Parboti Ghee</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>300 gm</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>৳ 320</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Best Grade Chia Seed (Good Source of Fibre, Minerals and Omega Fatty Acid )  Benefits of Chia Seeds:  1. The High Fiber and Protein Content in Chia Seeds May Help You Lose Weight 2. Chia Seeds Are Loaded With Antioxidants 3. Almost All the Carbs in Them Are Fiber 4. Chia Seeds Are High in Quality Protein 5. Chia Seeds Deliver a Massive Amount of Nutrients With Very Few Calories 6. Chia Seeds Are High in Omega-3 Fatty Acids 7. Chia Seeds May Lower Your Risk of Heart Disease Given that chia seeds are high in fiber, protein an 8. They’re High in Many Important Bone Nutrients 9. Chia Seeds May Reduce Blood Sugar Levels 10. They May Reduce Chronic Inflammation 11. Chia Seeds Are Easy to Incorporate Into Your Diet</t>
-        </is>
-      </c>
+          <t>৳ 500</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Premium Ingredients</t>
+          <t>Ghee</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pran Tomato Sauce</t>
+          <t>Chia Seed</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>340 gm</t>
+          <t>100 gm</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>৳ 100</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pran hot tomato sauce made from fresh tomato, chili, sugar,citric acid (E-330), sodium benzoate (211). Its tasty and healthy. Pran Hot Tomato Sauce can be use in various way. </t>
-        </is>
-      </c>
+          <t>৳ 89</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Tomato Sauces</t>
+          <t>Premium Ingredients</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ruchi Tomato Ketchup</t>
+          <t>Fit Food Chia Seed</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>350 gm</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>৳ 100</t>
+          <t>৳ 320</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ruchi Tomato Ketchup is an amazing taste enhancer of any daily snacks. Its seasoned secrete "Ruchi" recipe and ingredients together gives real taste of fresh ingredients. </t>
+          <t>Best Grade Chia Seed (Good Source of Fibre, Minerals and Omega Fatty Acid )  Benefits of Chia Seeds:  1. The High Fiber and Protein Content in Chia Seeds May Help You Lose Weight 2. Chia Seeds Are Loaded With Antioxidants 3. Almost All the Carbs in Them Are Fiber 4. Chia Seeds Are High in Quality Protein 5. Chia Seeds Deliver a Massive Amount of Nutrients With Very Few Calories 6. Chia Seeds Are High in Omega-3 Fatty Acids 7. Chia Seeds May Lower Your Risk of Heart Disease Given that chia seeds are high in fiber, protein an 8. They’re High in Many Important Bone Nutrients 9. Chia Seeds May Reduce Blood Sugar Levels 10. They May Reduce Chronic Inflammation 11. Chia Seeds Are Easy to Incorporate Into Your Diet</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Tomato Sauces</t>
+          <t>Premium Ingredients</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ruchi Mixed Pickle</t>
+          <t>Pran Tomato Sauce</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>400 gm</t>
+          <t>340 gm</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>৳ 150</t>
+          <t>৳ 115</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Ruchi Mixed Pickle is made from raw seasonal Bangladeshi mango, chalta and garlic with the mix of all natural ingredients. The sweet and soury taste and flavor of this pickle makes any day to day dish unique."</t>
+          <t xml:space="preserve">Pran hot tomato sauce made from fresh tomato, chili, sugar,citric acid (E-330), sodium benzoate (211). Its tasty and healthy. Pran Hot Tomato Sauce can be use in various way. </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Pickles</t>
+          <t>Tomato Sauces</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ruchi Olive Pickle</t>
+          <t>Pran Hot Tomato Sauce Mini 8 gm</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>400 gm</t>
+          <t>10 pcs</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>৳ 185</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Ruchi Olive Pickle is made from raw seasonal Bangladeshi olive and with the mix of all natural ingredients. The soury olive taste and flavor of Ruchi Oliver Pickle makes any day to day dish unique."</t>
-        </is>
-      </c>
+          <t>৳ 30</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Pickles</t>
+          <t>Tomato Sauces</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ahmed Soya Sauce</t>
+          <t>The Eastern Pickle Company Alu Bukhara Achar</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>500 ml</t>
+          <t>400 gm</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>৳ 125</t>
+          <t>৳ 390</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Origin: Bangladesh Manufacturer: Ahmed food products Ltd. Soya sauce for all purpose seasoning. Vegan Halal certified Ingredients: Concentrated soya, salt, sugar, water, mono sodium glutamate(E-621), sodium benzoate(E-211) Nutritional facts: Sodium 0.05% , Carbohydrate 25%</t>
+          <t>Introducing The Eastern Pickle Company's Alu Bukhara Achar, a delightful fusion of flavors offered in a generous 400g jar. Immerse your taste buds in the sweet and tangy experience of this expertly crafted Alu Bukhara (Plum) pickle.  Skillfully prepared, this Alu Bukhara Achar captures the essence of succulent plums, skillfully combined with a medley of thoughtfully chosen spices. The result is a symphony of flavors that marries the natural sweetness of plums with a hint of tanginess and aromatic spices.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cooking Sauces</t>
+          <t>Pickles</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ruchi Garlic Sauce</t>
+          <t>The Eastern Pickle Company Bombai Morich Er Achar</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>350 gm</t>
+          <t>400 gm</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>৳ 150</t>
+          <t>৳ 390</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>General Sauce-Ketchup Product</t>
+          <t>Introducing The Eastern Pickle Company's Bombai Morich Er Achar, an exhilarating flavor experience in a generous 400g jar. Immerse your taste buds in the fiery and aromatic delight of this skillfully crafted Bombai Morich (Scotch Bonnet) chili pickle.  Artisanally prepared, this Bombai Morich Er Achar captures the essence of vibrant Bombai Morich chilies, expertly combined with a blend of carefully selected spices. The result is a symphony of flavors that harmoniously blends the intense heat of the chilies with the captivating allure of aromatic spices.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cooking Sauces</t>
+          <t>Pickles</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ruchi Red Chilli Sauce</t>
+          <t>Ahmed Soya Sauce</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>360 gm</t>
+          <t>500 ml</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>৳ 150</t>
+          <t>৳ 125</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ruchi Red Chili Sauce is an amazing taste enhancer of any daily snacks which gives an unique taste of red chili, sourness and sweetness togather. Its seasoned secrete "Ruchi" recipe and ingredients together gives real taste of fresh ingredients. "</t>
+          <t>Origin: Bangladesh Manufacturer: Ahmed food products Ltd. Soya sauce for all purpose seasoning. Vegan Halal certified Ingredients: Concentrated soya, salt, sugar, water, mono sodium glutamate(E-621), sodium benzoate(E-211) Nutritional facts: Sodium 0.05% , Carbohydrate 25%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Other Table Sauces</t>
+          <t>Cooking Sauces</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ruchi Tamarind Sauce</t>
+          <t>Ruchi Garlic Sauce</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>370 gm</t>
+          <t>350 gm</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>৳ 120</t>
+          <t>৳ 150</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ruchi Tamarind Sauce is made from raw tamarind and seasoned secrete recipe. It gives any general fried snacks like Pakora a different dimension of taste."</t>
+          <t>General Sauce-Ketchup Product</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Other Table Sauces</t>
+          <t>Cooking Sauces</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Chicken Eggs (Layer)</t>
+          <t>Ruchi Red Chilli Sauce</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>12 pcs</t>
+          <t>360 gm</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>৳ 119</t>
+          <t>৳ 150</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Egg Weight (Per Pc): 55-65 gm  Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
+          <t>Ruchi Red Chili Sauce is an amazing taste enhancer of any daily snacks which gives an unique taste of red chili, sourness and sweetness togather. Its seasoned secrete "Ruchi" recipe and ingredients together gives real taste of fresh ingredients. "</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Other Table Sauces</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Chicken Eggs (Special Offer)</t>
+          <t>Ruchi Tamarind Sauce</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>12 pcs</t>
+          <t>370 gm</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>৳ 109</t>
+          <t>৳ 120</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
+          <t>Ruchi Tamarind Sauce is made from raw tamarind and seasoned secrete recipe. It gives any general fried snacks like Pakora a different dimension of taste."</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Other Table Sauces</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Arla Dano Daily Pushti Milk Powder</t>
+          <t>Chicken Eggs (Layer)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>12 pcs</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>৳ 395</t>
+          <t>৳ 119</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Dano Daily Pushti has been in Bangladesh since 2015 with the noble goal to ensure nutrition for all! This skimmed milk infused with vegetable fat is the most popular powder milk brand in Bangladesh, reaching over one-third of total households in a year. Dano Daily Pushti ensures accessibility and affordability of pure milk for all walks of people so that they can meet their dairy needs for drinking, tea or for food preparation. Like other Dano brands, this also comes directly from the farms of Europe maintaining strict quality standards.</t>
+          <t>Egg Weight (Per Pc): 55-65 gm  Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Powder Milk</t>
+          <t>Eggs</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Arla Dano Daily Pushti Milk Powder</t>
+          <t>Chicken Eggs (Special Offer)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>12 pcs</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>৳ 760</t>
+          <t>৳ 109</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Dano Daily Pushti has been in Bangladesh since 2015 with the noble goal to ensure nutrition for all! This skimmed milk infused with vegetable fat is the most popular powder milk brand in Bangladesh, reaching over one-third of total households in a year. Dano Daily Pushti ensures accessibility and affordability of pure milk for all walks of people so that they can meet their dairy needs for drinking, tea or for food preparation. Like other Dano brands, this also comes directly from the farms of Europe maintaining strict quality standards.</t>
+          <t>Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Powder Milk</t>
+          <t>Eggs</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aarong Dairy Pasteurized Liquid Milk</t>
+          <t>Arla Dano Daily Pushti Milk Powder</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1 ltr</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>৳ 95</t>
+          <t>৳ 395</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Milk is the best source of calcium. And it keeps skin soft and glowing. And in order to improve proper growth, you can have Aarong Dairy Liquid Milk. Brand: Aarong Dairy. Milk Type: Liquid. Net weight 1 Ltr.</t>
+          <t>Dano Daily Pushti has been in Bangladesh since 2015 with the noble goal to ensure nutrition for all! This skimmed milk infused with vegetable fat is the most popular powder milk brand in Bangladesh, reaching over one-third of total households in a year. Dano Daily Pushti ensures accessibility and affordability of pure milk for all walks of people so that they can meet their dairy needs for drinking, tea or for food preparation. Like other Dano brands, this also comes directly from the farms of Europe maintaining strict quality standards.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Liquid &amp; UHT Milk</t>
+          <t>Powder Milk</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Pran Pasteurized Full Cream Liquid Milk</t>
+          <t>Arla Dano Daily Pushti Milk Powder</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1 ltr</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>৳ 90</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>৳ 760</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Dano Daily Pushti has been in Bangladesh since 2015 with the noble goal to ensure nutrition for all! This skimmed milk infused with vegetable fat is the most popular powder milk brand in Bangladesh, reaching over one-third of total households in a year. Dano Daily Pushti ensures accessibility and affordability of pure milk for all walks of people so that they can meet their dairy needs for drinking, tea or for food preparation. Like other Dano brands, this also comes directly from the farms of Europe maintaining strict quality standards.</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Liquid &amp; UHT Milk</t>
+          <t>Powder Milk</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aarong Dairy Sour Curd</t>
+          <t>Aarong Dairy Pasteurized Liquid Milk</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>1 ltr</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>৳ 110+৳3</t>
+          <t>৳ 95</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Brac Dairy &amp; Food Project  1. Boosts Immunity Level 2. Prevents Cold 3. Better Digestion 4. Strengthen The Bones</t>
+          <t>Milk is the best source of calcium. And it keeps skin soft and glowing. And in order to improve proper growth, you can have Aarong Dairy Liquid Milk. Brand: Aarong Dairy. Milk Type: Liquid. Net weight 1 Ltr.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Yogurt &amp; Sweets</t>
+          <t>Liquid &amp; UHT Milk</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aarong Dairy Low Fat Yogurt (Sour)</t>
+          <t>Pran UHT Milk</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>1 ltr</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>৳ 100</t>
+          <t>৳ 120</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Delicious, creamy and smooth, made from fresh milk collected every day from homestead dairy farmers across Bangladesh. It is completely natural, free of artificial ingredients and preservatives. Share and Enjoy! CATEGORIES: LOW FAT YOGHURT, YOGHURT, LOW FAT PRODUCTS.</t>
+          <t>UHT Milk is one of the most popular milks to the people who wants to maintain a balanced and healthy life.Pran UHT Milk gives us a proper combination of nutrition and good taste. It is enriched with many essential nutrients like potassium,zinc,carbohydrates,protein etc.If we want to have a long healthy life,we can certainly take this fresh full cream milk.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Yogurt &amp; Sweets</t>
+          <t>Liquid &amp; UHT Milk</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aarong Dairy Austagram Cheese</t>
+          <t>Aarong Dairy Sour Curd</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>৳ 190</t>
+          <t>৳ 110+৳3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Origin: Bangladesh Manuacturer: Aarong dairy Austagram Cheese is a white, salty, semi-hard indigenous cheese. Common salt is an important constituent of this cheese for its role in preservation. Composition: Cow’s Fresh Milk, Enzyme &amp; Sodium Chloride Nutrition: Protein, Energy, Milk fat, Carbohydrate, Minerals.</t>
+          <t>Brac Dairy &amp; Food Project  1. Boosts Immunity Level 2. Prevents Cold 3. Better Digestion 4. Strengthen The Bones</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cheese</t>
+          <t>Yogurt &amp; Sweets</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aarong Dairy Paneer</t>
+          <t>Aarong Dairy Low Fat Yogurt (Sour)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>৳ 200</t>
+          <t>৳ 100</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Paneer is a fresh, creamy, normally unsalted cheese. It is made by curdling hot milk using lemon juice, citric acid or vinegar. The result is a soft, fluffy cheese that is firm and can be cut into slices, pieces or blocks as required but doesn’t crumble easily. The texture is firm and has the ability to retain its shape for a long time, even when it’s cooked or baked over high heat. CATEGORIES: PONIR, CHEESE</t>
+          <t>Delicious, creamy and smooth, made from fresh milk collected every day from homestead dairy farmers across Bangladesh. It is completely natural, free of artificial ingredients and preservatives. Share and Enjoy! CATEGORIES: LOW FAT YOGHURT, YOGHURT, LOW FAT PRODUCTS.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cheese</t>
+          <t>Yogurt &amp; Sweets</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Goalini Plus Condensed Milk</t>
+          <t>Aarong Dairy Austagram Cheese</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>400 gm</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>৳ 105</t>
+          <t>৳ 190</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brand- Goalini Product type- Condensed Milk 400gm Technology AVP Switzerland. Ingredient: Skimmed Milk Powder, whey Powder, Super Refined Sugar, Pure Vegetable Fat8.0%, Lactose &amp; RO Treated Water. </t>
+          <t>Origin: Bangladesh Manuacturer: Aarong dairy Austagram Cheese is a white, salty, semi-hard indigenous cheese. Common salt is an important constituent of this cheese for its role in preservation. Composition: Cow’s Fresh Milk, Enzyme &amp; Sodium Chloride Nutrition: Protein, Energy, Milk fat, Carbohydrate, Minerals.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Condensed Milk &amp; Cream</t>
+          <t>Cheese</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Puck Sterilized Cream</t>
+          <t>Aarong Dairy Paneer</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>160 gm</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>৳ 329</t>
+          <t>৳ 200</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Indulge in the creamy richness of Puck Sterilized Cream, a 160-gram container of pure, high-quality cream that elevates your culinary creations to new heights. This versatile and decadent cream is a kitchen essential for both home cooks and professional chefs, adding a touch of luxury to your dishes. Elevate your cooking and baking with the decadence of Puck Sterilized Cream and enjoy the indulgence of pure, creamy goodness in every dish.</t>
+          <t>Paneer is a fresh, creamy, normally unsalted cheese. It is made by curdling hot milk using lemon juice, citric acid or vinegar. The result is a soft, fluffy cheese that is firm and can be cut into slices, pieces or blocks as required but doesn’t crumble easily. The texture is firm and has the ability to retain its shape for a long time, even when it’s cooked or baked over high heat. CATEGORIES: PONIR, CHEESE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Condensed Milk &amp; Cream</t>
+          <t>Cheese</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aarong Dairy Butter</t>
+          <t>Starship Condensed Milk</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>400 gm</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>৳ 250</t>
+          <t>৳ 105</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aarong butter is a dairy product made by fresh or fermented cream or milk, to separate the butterfat from the buttermilk. It is generally used as a spread as well as in cooking, such as baking, sauce making, and pan frying. Butter consists of butterfat, milk proteins and water. Most frequently made from cows' milk, butter can also be manufactured from the milk of other mammals, including sheep, goats, buffalo, and yaks. Salt, flavorings and preservatives are sometimes added to butter. Rendering butter produces clarified butter or ghee, which is almost entirely butterfat. </t>
+          <t>Introducing Starship Condensed Milk, a rich and velvety delight that brings the timeless sweetness of condensed milk to your culinary creations. Encased within a convenient 400 gm tin, this indulgent treat offers a versatile ingredient that can elevate a wide range of dishes, desserts, and beverages.  Starship Condensed Milk is a culinary essential thoughtfully created to add a touch of luxurious creaminess and sweetness to your recipes. Made from high-quality milk that's been carefully condensed and sweetened, this product delivers a luscious texture and a comforting sweetness that's perfect for both cooking and indulging.  With its inviting aroma and sumptuous consistency, this condensed milk becomes a versatile companion in the kitchen.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Butter &amp; Sour Cream</t>
+          <t>Condensed Milk &amp; Cream</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Milk Vita Butter</t>
+          <t>Goalini Plus Condensed Milk</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>400 gm</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>৳ 250</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>৳ 105</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brand- Goalini Product type- Condensed Milk 400gm Technology AVP Switzerland. Ingredient: Skimmed Milk Powder, whey Powder, Super Refined Sugar, Pure Vegetable Fat8.0%, Lactose &amp; RO Treated Water. </t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Butter &amp; Sour Cream</t>
+          <t>Condensed Milk &amp; Cream</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Chicken Eggs (Layer)</t>
+          <t>Aarong Dairy Butter</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12 pcs</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>৳ 119</t>
+          <t>৳ 250</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Egg Weight (Per Pc): 55-65 gm  Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
+          <t xml:space="preserve">Aarong butter is a dairy product made by fresh or fermented cream or milk, to separate the butterfat from the buttermilk. It is generally used as a spread as well as in cooking, such as baking, sauce making, and pan frying. Butter consists of butterfat, milk proteins and water. Most frequently made from cows' milk, butter can also be manufactured from the milk of other mammals, including sheep, goats, buffalo, and yaks. Salt, flavorings and preservatives are sometimes added to butter. Rendering butter produces clarified butter or ghee, which is almost entirely butterfat. </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Butter &amp; Sour Cream</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Chicken Eggs (Special Offer)</t>
+          <t>Milk Vita Butter</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>12 pcs</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>৳ 109</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
-        </is>
-      </c>
+          <t>৳ 250</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Butter &amp; Sour Cream</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Revival Karak Masala Tea</t>
+          <t>Chicken Eggs (Layer)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>12 pcs</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>৳ 170</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>৳ 119</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Egg Weight (Per Pc): 55-65 gm  Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Tea &amp; Coffee</t>
+          <t>Eggs</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Revival Karak Masala Tea (Bundle Pack) 200 gm</t>
+          <t>Chicken Eggs (Special Offer)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2 pcs</t>
+          <t>12 pcs</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>৳ 340</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>৳ 109</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Tea &amp; Coffee</t>
+          <t>Eggs</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Nestle Gold Corn Flakes Cereal Box</t>
+          <t>Ispahani Mirzapore Tea Bag</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>275 gm</t>
+          <t>50 pcs</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>৳ 400</t>
+          <t>৳ 90</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>There’s nothing like starting your day with a bowl of tasty, crispy flakes made of goodness of wholegrain  Whole Grain contains dietary fiber, Calcium helps to maintain strong bones and Iron is important for healthy red blood cells.  It contains lower amount of fat so it can be a great meal to maintain a healthy lifestyle.  Net Weight: 275g  Origin: Philippines  Marketed by Nestlé Bangladesh Limited.</t>
+          <t xml:space="preserve">Tea leaves are a natural source of goodness. Ispahani Mirzapore Tea is very special blent made from tea leaves of the garden of a Bangladesh. Ispahani Mirzapore Tea Bag is a blend of cheer and refresher. </t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Cereals</t>
+          <t>Tea &amp; Coffee</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Kellogg's Corn Flakes Original Cereal</t>
+          <t>Brooke Bond Taaza Black Tea</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>475 gm</t>
+          <t>150 gm</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>৳ 570</t>
+          <t>৳ 100</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Kellogg's Corn Flakes is a nourishing and tasty ready-to-eat breakfast cereal which is High in Iron, Vitamin C and key essential B group Vitamins such as B1, B2, B3, B6, B12 and Folate. Kellogg's Corn Flakes Original is naturally cholesterol free. It contains only 1% Fat. You can count on Kellogg's for a great tasting and convenient breakfast that is nourishing.</t>
+          <t>In order to stay on top of your packed day, all you need is a clear mind – what's better than a cup of new Brooke Bond Taaza to refresh &amp; clear your mind. Because only new Brooke Bond Taaza is a tea with High Quality fresh Tea Leaves, packed with the Natural Goodness of Theanine, that helps to clear your mind and enables you to manage the demands of everyday life. This tea is perfect for those Spirited Aspirers who believe that the brighter future of their family is the center of their universe. Our world-class tea tasters and experts blend the tea that results in the exceptional colour, superior taste and impeccable aroma of each “Dana” of our brand. Strong processes ensure that the quality remains consistent throughout the year. Taaza makes sure that this phenomenal journey also resonates in every end cup as absolute refreshment!</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cereals</t>
+          <t>Tea &amp; Coffee</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Dabur Honey</t>
+          <t>Nestle Gold Corn Flakes Cereal Box</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>275 gm</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>৳ 360</t>
+          <t>৳ 400</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Deemed as a top health food across the globe, Dabur Honey is a wonderful creation. The health properties of this thick golden liquid have been valued since ages. All Benefits of Honey in a teaspoon: • Weight management- Did you know you can use honey for weight loss? A spoonful of honey taken with warm water in the morning is known to aid weight management. • A healthy substitute to sugar. • It is known to be a good source of energy as its natural sugar and carbohydrates can easily be digested by the body. • Aids digestion. • Ginger and Honey, is a natural cure for cough and throat irritation. • Because of its moisturizing and nourishing properties, it keeps your skin clean and glowing. Benefit from the goodness of honey with a daily dose of Dabur Honey and treat your mind, body and soul to a healthier lifestyle. Take your first step towards building your overall positive health with the many benefits of Honey today! Find out all you need to know about Dabur Honey - One of the Best Honey Brand today!</t>
+          <t>There’s nothing like starting your day with a bowl of tasty, crispy flakes made of goodness of wholegrain  Whole Grain contains dietary fiber, Calcium helps to maintain strong bones and Iron is important for healthy red blood cells.  It contains lower amount of fat so it can be a great meal to maintain a healthy lifestyle.  Net Weight: 275g  Origin: Philippines  Marketed by Nestlé Bangladesh Limited.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Honey</t>
+          <t>Cereals</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Dabur Honey</t>
+          <t>Kellogg's Corn Flakes Original Cereal</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>250 gm</t>
+          <t>475 gm</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>৳ 220</t>
+          <t>৳ 570</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Deemed as a top health food across the globe, Dabur Honey is a wonderful creation. The health properties of this thick golden liquid have been valued since ages. All Benefits of Honey in a teaspoon: • Weight management- Did you know you can use honey for weight loss? A spoonful of honey taken with warm water in the morning is known to aid weight management. • A healthy substitute to sugar. • It is known to be a good source of energy as its natural sugar and carbohydrates can easily be digested by the body. • Aids digestion. • Ginger and Honey, is a natural cure for cough and throat irritation. • Because of its moisturizing and nourishing properties, it keeps your skin clean and glowing. Benefit from the goodness of honey with a daily dose of Dabur Honey and treat your mind, body and soul to a healthier lifestyle. Take your first step towards building your overall positive health with the many benefits of Honey today! Find out all you need to know about Dabur Honey - One of the Best Honey Brand today!</t>
+          <t>Kellogg's Corn Flakes is a nourishing and tasty ready-to-eat breakfast cereal which is High in Iron, Vitamin C and key essential B group Vitamins such as B1, B2, B3, B6, B12 and Folate. Kellogg's Corn Flakes Original is naturally cholesterol free. It contains only 1% Fat. You can count on Kellogg's for a great tasting and convenient breakfast that is nourishing.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Honey</t>
+          <t>Cereals</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nucella+ Chocolate Bread Spread Cocoa &amp; Almond</t>
+          <t>Dabur Honey</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>230 gm</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>৳ 315</t>
+          <t>৳ 360</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Introducing the indulgent Nucella Fortified Chocolate Spread in Cocoa &amp; Almond flavor, a 230 gm jar of pure delight that blends the richness of cocoa with the crunchiness of almonds. Get ready to experience a symphony of flavors and textures that's both luxurious and nourishing.  Unveil a world of decadence as you discover the Nucella Fortified Chocolate Spread. Each spoonful is a masterpiece, combining the velvety cocoa goodness with the delightful crunch of almonds. The harmonious balance between the creamy chocolate and the nutty texture creates a taste sensation that's both satisfying and irresistible.</t>
+          <t>Deemed as a top health food across the globe, Dabur Honey is a wonderful creation. The health properties of this thick golden liquid have been valued since ages. All Benefits of Honey in a teaspoon: • Weight management- Did you know you can use honey for weight loss? A spoonful of honey taken with warm water in the morning is known to aid weight management. • A healthy substitute to sugar. • It is known to be a good source of energy as its natural sugar and carbohydrates can easily be digested by the body. • Aids digestion. • Ginger and Honey, is a natural cure for cough and throat irritation. • Because of its moisturizing and nourishing properties, it keeps your skin clean and glowing. Benefit from the goodness of honey with a daily dose of Dabur Honey and treat your mind, body and soul to a healthier lifestyle. Take your first step towards building your overall positive health with the many benefits of Honey today! Find out all you need to know about Dabur Honey - One of the Best Honey Brand today!</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Dips, Spreads &amp; Syrups</t>
+          <t>Honey</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Nutella Hazelnut Cocoa Spread</t>
+          <t>Dabur Honey</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>350 gm</t>
+          <t>250 gm</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>৳ 680</t>
+          <t>৳ 220</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Nutella is an inspiring tale of love and passion, combined with careful selection and processing of raw materials, spreading positive energy for families to start optimistically around the world. Nutella® enhances unique hazelnut and cocoa flavor with its unique creaminess. A small amount of this delicacy is enough to guarantee an unparalleled taste experience. Enjoy the delicacy in diverse ways starting from breakfast bread spread, shakes, to desserts and cakes or just eat it!</t>
+          <t>Deemed as a top health food across the globe, Dabur Honey is a wonderful creation. The health properties of this thick golden liquid have been valued since ages. All Benefits of Honey in a teaspoon: • Weight management- Did you know you can use honey for weight loss? A spoonful of honey taken with warm water in the morning is known to aid weight management. • A healthy substitute to sugar. • It is known to be a good source of energy as its natural sugar and carbohydrates can easily be digested by the body. • Aids digestion. • Ginger and Honey, is a natural cure for cough and throat irritation. • Because of its moisturizing and nourishing properties, it keeps your skin clean and glowing. Benefit from the goodness of honey with a daily dose of Dabur Honey and treat your mind, body and soul to a healthier lifestyle. Take your first step towards building your overall positive health with the many benefits of Honey today! Find out all you need to know about Dabur Honey - One of the Best Honey Brand today!</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Dips, Spreads &amp; Syrups</t>
+          <t>Honey</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Purnava Omega 3 Enriched Eggs</t>
+          <t>Nucella+ Chocolate Bread Spread Cocoa &amp; Almond</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>12 pcs</t>
+          <t>230 gm</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>৳ 265</t>
+          <t>৳ 315</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Egg Weight (Per Pc): 60-70 gm   Naturally farm chicken eggs are little source of Omega 3, it contents about less than 1mg per egg. Whereas Purnava Omega 3 enriched eggs are produced by adding extra Alpha Tochopherol (Omega 3) and about 50% daily values can be met by taking 1 average size Omega 3 enriched egg per day. Purnava Omega 3 eggs come from hens feed completely natural vegetable feed sources and do not use any animal source. Hens farmed in friendly environment and free from Salmonella. Purnava Omega 3 egg is free of chemicals, chromium, antibiotics or hormones as well.</t>
+          <t>Introducing the indulgent Nucella Fortified Chocolate Spread in Cocoa &amp; Almond flavor, a 230 gm jar of pure delight that blends the richness of cocoa with the crunchiness of almonds. Get ready to experience a symphony of flavors and textures that's both luxurious and nourishing.  Unveil a world of decadence as you discover the Nucella Fortified Chocolate Spread. Each spoonful is a masterpiece, combining the velvety cocoa goodness with the delightful crunch of almonds. The harmonious balance between the creamy chocolate and the nutty texture creates a taste sensation that's both satisfying and irresistible.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Energy Boosters</t>
+          <t>Dips, Spreads &amp; Syrups</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Purnava Vitamin E Eggs</t>
+          <t>Nutella Hazelnut Cocoa Spread</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>12 pcs</t>
+          <t>350 gm</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>৳ 205</t>
+          <t>৳ 680</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Egg Weight (Per Pc): 60-70 gm  Naturally farm chicken eggs are little source of vitamin E, it contents about less than 1mg per egg. Whereas Purnava Vitamin E enriched eggs are produced by adding extra Alpha Tochopherol (Vitamin E) and about 50% daily values can be met by taking 1 average size E enriched egg per day. Purnava E eggs come from hens feed completely natural vegetable feed sources and do not use any animal source. Hens farmed in friendly environment and free from Salmonella. Purnava E egg is free of chemicals, chromium, antibiotics or hormones as well.</t>
+          <t>Nutella is an inspiring tale of love and passion, combined with careful selection and processing of raw materials, spreading positive energy for families to start optimistically around the world. Nutella® enhances unique hazelnut and cocoa flavor with its unique creaminess. A small amount of this delicacy is enough to guarantee an unparalleled taste experience. Enjoy the delicacy in diverse ways starting from breakfast bread spread, shakes, to desserts and cakes or just eat it!</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Energy Boosters</t>
+          <t>Dips, Spreads &amp; Syrups</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ruchi Mixed Fruit Jam</t>
+          <t>Purnava Omega 3 Enriched Eggs</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>12 pcs</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>৳ 195</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>৳ 265</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Egg Weight (Per Pc): 60-70 gm   Naturally farm chicken eggs are little source of Omega 3, it contents about less than 1mg per egg. Whereas Purnava Omega 3 enriched eggs are produced by adding extra Alpha Tochopherol (Omega 3) and about 50% daily values can be met by taking 1 average size Omega 3 enriched egg per day. Purnava Omega 3 eggs come from hens feed completely natural vegetable feed sources and do not use any animal source. Hens farmed in friendly environment and free from Salmonella. Purnava Omega 3 egg is free of chemicals, chromium, antibiotics or hormones as well.</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Jams &amp; Jellies</t>
+          <t>Energy Boosters</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ruchi Orange Jam</t>
+          <t>Purnava Vitamin E Eggs</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>12 pcs</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>৳ 195</t>
+          <t>৳ 205</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Ruchi Orange Jam manufactured by Square Food &amp; Beverage Ltd. Ruchi Orange Jam is full of nutrition. Its tasty as well as healthy.  Ingredients: Orange pulp, pectrin, citric Acid, Sodium Benzoate.</t>
+          <t>Egg Weight (Per Pc): 60-70 gm  Naturally farm chicken eggs are little source of vitamin E, it contents about less than 1mg per egg. Whereas Purnava Vitamin E enriched eggs are produced by adding extra Alpha Tochopherol (Vitamin E) and about 50% daily values can be met by taking 1 average size E enriched egg per day. Purnava E eggs come from hens feed completely natural vegetable feed sources and do not use any animal source. Hens farmed in friendly environment and free from Salmonella. Purnava E egg is free of chemicals, chromium, antibiotics or hormones as well.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Jams &amp; Jellies</t>
+          <t>Energy Boosters</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Snickers Chocolate</t>
+          <t>Ruchi Mixed Fruit Jam</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>50 gm</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>৳ 100</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Origin: Russia The world's best-selling candy bar. Crammed with peanuts, caramel and nougat then coated with milk chocolate. Nutritional facts: Calories 12% , Fat 19%, Sugar 28%</t>
-        </is>
-      </c>
+          <t>৳ 195</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Chocolates</t>
+          <t>Jams &amp; Jellies</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cadbury Dairy Milk Silk Oreo Chocolate</t>
+          <t>Ruchi Orange Jam</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>60 gm</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>৳ 150</t>
+          <t>৳ 195</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Product Origin:India   Description:  • Cadbury Dairy Milk Silk is all about regaling in the richness and creaminess of the chocolate. Indulge in a rich, smooth and creamy celebration.  • Silk: The classic taste of Cadbury Dairy Milk chocolates only more creamy, more smooth, more indulging.  • Cadbury Dairy Milk Silk is made with a glass and a half of milk.  • This pack is perfect to indulge in all alone or as a gift for your special someone.  • Every bar is made from 100% sustainable cocoa.  • Suitable for vegetarians.</t>
+          <t>Ruchi Orange Jam manufactured by Square Food &amp; Beverage Ltd. Ruchi Orange Jam is full of nutrition. Its tasty as well as healthy.  Ingredients: Orange pulp, pectrin, citric Acid, Sodium Benzoate.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Chocolates</t>
+          <t>Jams &amp; Jellies</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Cocola Chocolate Wafer Roll Jar</t>
+          <t>Snickers Chocolate</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>170 gm</t>
+          <t>50 gm</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>৳ 70</t>
+          <t>৳ 100</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Chocolate Wafer Roll is a jar of a bunch of chocolates that you can give for a child. When you go to visit somewhere, you can take it along with you. So, get it hurry with different flavor from chaldal.</t>
+          <t>Origin: Russia The world's best-selling candy bar. Crammed with peanuts, caramel and nougat then coated with milk chocolate. Nutritional facts: Calories 12% , Fat 19%, Sugar 28%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Wafers</t>
+          <t>Chocolates</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Nestle KitKat 2 Finger Chocolate Wafer (India)</t>
+          <t>Cadbury Dairy Milk Silk Oreo Chocolate</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>18 gm</t>
+          <t>60 gm</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>৳ 40</t>
+          <t>৳ 150</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NESTLÉ KITKAT Chocolate Bar is the ideal snack for those who really value their break. Just unwrap the bar and break off one of the 2 fingers, snap it into two and savour the deliciously smooth milk chocolate.  Imported from Nestlé India</t>
+          <t>Product Origin:India   Description:  • Cadbury Dairy Milk Silk is all about regaling in the richness and creaminess of the chocolate. Indulge in a rich, smooth and creamy celebration.  • Silk: The classic taste of Cadbury Dairy Milk chocolates only more creamy, more smooth, more indulging.  • Cadbury Dairy Milk Silk is made with a glass and a half of milk.  • This pack is perfect to indulge in all alone or as a gift for your special someone.  • Every bar is made from 100% sustainable cocoa.  • Suitable for vegetarians.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Wafers</t>
+          <t>Chocolates</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Haribo Happy Cola Candy</t>
+          <t>Cocola Chocolate Wafer Roll Jar</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>80 gm</t>
+          <t>170 gm</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>৳ 235</t>
+          <t>৳ 70</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>From America's #1-selling Gummi Bear, try delicious Happy Cola! These two-toned gummies come in a fun bottle shape and have a delcious cola taste.</t>
+          <t>Chocolate Wafer Roll is a jar of a bunch of chocolates that you can give for a child. When you go to visit somewhere, you can take it along with you. So, get it hurry with different flavor from chaldal.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Candies</t>
+          <t>Wafers</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Fox's Crystal Clear Fruits Candy</t>
+          <t>Nestle KitKat 2 Finger Chocolate Wafer (India)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>180 gm</t>
+          <t>18 gm</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>৳ 325</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>৳ 40</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>NESTLÉ KITKAT Chocolate Bar is the ideal snack for those who really value their break. Just unwrap the bar and break off one of the 2 fingers, snap it into two and savour the deliciously smooth milk chocolate.  Imported from Nestlé India</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Candies</t>
+          <t>Wafers</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Nestle POLO Mint Roll</t>
+          <t>Fox's Crystal Clear Fruits Candy</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>15 gm</t>
+          <t>180 gm</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>৳ 15</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Presenting Nestlé POLO Mint Roll 15 gm: The Timeless Refreshment that Unleashes a Cool, Minty Wave! Experience the iconic taste of Nestlé POLO Mint Roll 15 gm, a classic mint confection that has delighted taste buds for generations. With its distinctive round shape and unmistakable cool flavor, POLO Mint Roll offers a refreshing break from the ordinary. Each roll is thoughtfully designed for easy, on-the-go enjoyment, making it the perfect companion for a quick pick-me-up or a subtle breath freshener.</t>
-        </is>
-      </c>
+          <t>৳ 325</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Gums, Mints &amp; Mouth Fresheners</t>
+          <t>Candies</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cavendish &amp; Harvey Clear Mint Drops</t>
+          <t>Haribo Chamallows Party Candy</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>150 gm</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>৳ 369</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>৳ 400</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soft and Fluffy, HARIBO Chamallows Party candy have a unique texture that melts in the mouth for an indulgent treat. Perfect for barbecue toasting, chocolate fondue and Chamallow lollipop creations. </t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Gums, Mints &amp; Mouth Fresheners</t>
+          <t>Candies</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Alpenliebe Juzt Jelly Snack Pack 14 pcs</t>
+          <t>Nestle POLO Mint Roll</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>50 gm</t>
+          <t>15 gm</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>৳ 50</t>
+          <t>৳ 15</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Product – Jelly Candy Flavor – Strawberry and Green Mango </t>
+          <t>Presenting Nestlé POLO Mint Roll 15 gm: The Timeless Refreshment that Unleashes a Cool, Minty Wave! Experience the iconic taste of Nestlé POLO Mint Roll 15 gm, a classic mint confection that has delighted taste buds for generations. With its distinctive round shape and unmistakable cool flavor, POLO Mint Roll offers a refreshing break from the ordinary. Each roll is thoughtfully designed for easy, on-the-go enjoyment, making it the perfect companion for a quick pick-me-up or a subtle breath freshener.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Jellies &amp; Marshmallows</t>
+          <t>Gums, Mints &amp; Mouth Fresheners</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Golden Garden Jelly Bean</t>
+          <t>Cavendish &amp; Harvey Clear Mint Drops</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>150 gm</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>৳ 210</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Brand- Golden Garden Product of China Jelly beans are small bean-shaped candies with soft candy shells and thick gel interior. Primarily made of sugar and sold in a wide varsity of colors and flavors.</t>
-        </is>
-      </c>
+          <t>৳ 369</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Jellies &amp; Marshmallows</t>
+          <t>Gums, Mints &amp; Mouth Fresheners</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Samyang Hot Chicken Ramen 3X Spicy</t>
+          <t>Alpenliebe Juzt Jelly Snack Pack 14 pcs</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>140 gm</t>
+          <t>50 gm</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>৳ 163</t>
+          <t>৳ 50</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origin: Made in Korea </t>
+          <t xml:space="preserve">Product – Jelly Candy Flavor – Strawberry and Green Mango </t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Noodles</t>
+          <t>Jellies &amp; Marshmallows</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Samyang Hot Chicken Ramen Stew Noodles</t>
+          <t>Golden Garden Jelly Bean</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>145 gm</t>
+          <t>150 gm</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>৳ 150</t>
+          <t>৳ 210</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>The Stew Type Flavor Of Samyang Noodles Has A Flakes Packet, Which Goes Into The Water At The Same Time As The Noodles. Draining The Water From The Noodles Takes A Tiny Bit More Precision As You Don't Want To Dump Out Any Of Those Hydrated Veggies. Country Of Origin : Korea 100% Halal.</t>
+          <t>Brand- Golden Garden Product of China Jelly beans are small bean-shaped candies with soft candy shells and thick gel interior. Primarily made of sugar and sold in a wide varsity of colors and flavors.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Noodles</t>
+          <t>Jellies &amp; Marshmallows</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Dekko Honey &amp; Kalo Zeera Biscuit</t>
+          <t>Mr. Noodles Cup Noodles Magic Masala</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>144 gm</t>
+          <t>40 gm</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>৳ 50</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>৳ 30</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh.</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Cookies</t>
+          <t>Noodles</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Munchy's Oat Krunch Chunky Hazelnut Cookies</t>
+          <t>Panda Authentic Chinese Noodles</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>208 gm</t>
+          <t>300 gm</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>৳ 450</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>৳ 60</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Panda Authentic Chinese Noodles is a brand of noodles that offers a taste and texture reminiscent of traditional Chinese cuisine. These noodles are commonly used in a variety of Chinese dishes, such as stir-fries, soups, and noodle-based recipes.</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Cookies</t>
+          <t>Noodles</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ruchi Chanachur Bar-B-Q</t>
+          <t>All Time Roma Chocolate Cookies</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>22 gm</t>
+          <t>75 gm</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>৳ 10</t>
+          <t>৳ 65</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">RUCHI BBQ Chanachur is the pioneer of barbecue-flavored chanachur in Bangladesh. Its smoky grilled flavor is unique, distinctive and mouthwatering - which helps it retain the top spot at the center of every chat group across all age groups. RUCHI BBQ is crispier, crunchier and tastier </t>
+          <t>Origin:Bangladesh</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Local Snacks</t>
+          <t>Cookies</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ruchi Bbq Chanachur</t>
+          <t>Bisk Club Sugar Free Cracker Biscuit</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>300 gm</t>
+          <t>180 gm</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>৳ 100</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>RUCHI BBQ Chanachur is the pioneer of barbecue-flavored chanachur in Bangladesh. Its smoky grilled flavor is unique, distinctive and mouthwatering - which helps it retain the top spot at the center of every chat group across all age groups. RUCHI BBQ is crispier, crunchier and smarter - and with it, gossiping and leisure periods can be enjoyed far better.</t>
-        </is>
-      </c>
+          <t>৳ 75</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Local Snacks</t>
+          <t>Cookies</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kurkure Naughty Tomato Chips</t>
+          <t>Ruchi Chanachur Bar-B-Q</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>37 gm</t>
+          <t>22 gm</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>৳ 25</t>
+          <t>৳ 10</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Kurkure Naughty Tomato Chips 37 gm are a zesty and tangy snack that adds a playful twist to your snacking experience. These corn-based snacks are characterized by their unique twisted shape and a lively tomato seasoning that delivers a burst of tanginess and a hint of spiciness with every bite. whenever you crave a lively and satisfying bite, these chips are designed to tickle your taste buds. Enjoy the vibrant and satisfying crunch of Kurkure Naughty Tomato Chips and add a dash of playfulness to your snacking moments.</t>
+          <t xml:space="preserve">RUCHI BBQ Chanachur is the pioneer of barbecue-flavored chanachur in Bangladesh. Its smoky grilled flavor is unique, distinctive and mouthwatering - which helps it retain the top spot at the center of every chat group across all age groups. RUCHI BBQ is crispier, crunchier and tastier </t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Chips &amp; Pretzels</t>
+          <t>Local Snacks</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Ruchi BBQ Potato Crackers</t>
+          <t>Ruchi Bbq Chanachur</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>25 gm</t>
+          <t>300 gm</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>৳ 15</t>
+          <t>৳ 100</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RUCHI Potato Crackers - Bar-B-Q is a prominent flavor in the RUCHI Potato Crackers product line. Devoid of artificial ingredients and preservatives, it has an amazing Bar-B-Q flavor, and is enriched with protein, iron, and much more! Mixing the latest flavor trends with the invigorating crisp, Ruchi Bar-B-Q is poised to be the choice of chips across all age groups.</t>
+          <t>RUCHI BBQ Chanachur is the pioneer of barbecue-flavored chanachur in Bangladesh. Its smoky grilled flavor is unique, distinctive and mouthwatering - which helps it retain the top spot at the center of every chat group across all age groups. RUCHI BBQ is crispier, crunchier and smarter - and with it, gossiping and leisure periods can be enjoyed far better.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Chips &amp; Pretzels</t>
+          <t>Local Snacks</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Dekko Marie Classic Biscuit</t>
+          <t>Kurkure Naughty Tomato Chips</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>222 gm</t>
+          <t>37 gm</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>৳ 60</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>৳ 25</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Kurkure Naughty Tomato Chips 37 gm are a zesty and tangy snack that adds a playful twist to your snacking experience. These corn-based snacks are characterized by their unique twisted shape and a lively tomato seasoning that delivers a burst of tanginess and a hint of spiciness with every bite. whenever you crave a lively and satisfying bite, these chips are designed to tickle your taste buds. Enjoy the vibrant and satisfying crunch of Kurkure Naughty Tomato Chips and add a dash of playfulness to your snacking moments.</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Plain Biscuits</t>
+          <t>Chips &amp; Pretzels</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Munchy’s Oat Krunch Breakfast Chia Seeds &amp; Milk Biscuit</t>
+          <t>Ruchi BBQ Potato Crackers</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>192 gm</t>
+          <t>25 gm</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>৳ 410</t>
+          <t>৳ 15</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Healthy biscuits that are tasty, and tasty biscuits that are healthy. Just like the Oat Krunch biscuits, made with healthy oats and tasty ingredients. Oat Krunch contains sources of fiber that are trans-fat free with no preservatives and conveniently packed for whenever and wherever life takes. It is the perfect crunch for everyone! Have it all with Oat Krunch!  Oats are rich in beta-glucan powers that can help in lowering cholesterol levels, blood pressure, risk of coronary heart disease and is a healthy source of fiber.  Contains: Wheat, Soybeans, Nuts.</t>
+          <t>RUCHI Potato Crackers - Bar-B-Q is a prominent flavor in the RUCHI Potato Crackers product line. Devoid of artificial ingredients and preservatives, it has an amazing Bar-B-Q flavor, and is enriched with protein, iron, and much more! Mixing the latest flavor trends with the invigorating crisp, Ruchi Bar-B-Q is poised to be the choice of chips across all age groups.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Plain Biscuits</t>
+          <t>Chips &amp; Pretzels</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ispahani Bakery Fresh Sweet Toast Biscuit</t>
+          <t>Pran Potata Spicy Biscuit</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>150 gm</t>
+          <t>100 gm</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>৳ 50</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Bakery Fresh Sweet Toast is perfectly sweet and crunchy. A fantastic tea time snack.</t>
-        </is>
-      </c>
+          <t>৳ 30</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Toast &amp; Bakery Biscuits</t>
+          <t>Plain Biscuits</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Olympic Premium Toast Biscuit</t>
+          <t>Dekko Marie Classic Biscuit</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>185 gm</t>
+          <t>222 gm</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>৳ 50</t>
+          <t>৳ 60</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Toast &amp; Bakery Biscuits</t>
+          <t>Plain Biscuits</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Olympic Tim Tim Orange Biscuit</t>
+          <t>Pran Special Toast Biscuit</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>40 gm</t>
+          <t>185 gm</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>৳ 10</t>
+          <t>৳ 60</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Cream Biscuits</t>
+          <t>Toast &amp; Bakery Biscuits</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Munchy's Cream Cracker Biscuits</t>
+          <t>Pran All Time Dry Cake Biscuit</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>300 gm</t>
+          <t>22 gm</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>৳ 520</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>৳ 10</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Origin: Bangladesh Biscuit and Bakery</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Cream Biscuits</t>
+          <t>Toast &amp; Bakery Biscuits</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Barilla Penne Rigate N.73 Pasta</t>
+          <t>Olympic Tim Tim Orange Biscuit</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>40 gm</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>৳ 360</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Origin: Italy Barilla PENNE RIGATE is one of the most versatile pasta, known for its adaptability with recipes and occasions, from a traditional family lunch or official grown dinner. Try Penne Rigate with easy tomato sauce, vegetables, with or without meat and enjoy an authentic Italian meal.  • TRUSTED: N°1 IN ITALY with over 140 years of craftsmanship, making high quality pasta that COOKS PERFECTLY EVERY TIME.</t>
-        </is>
-      </c>
+          <t>৳ 10</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Pasta &amp; Macaroni</t>
+          <t>Cream Biscuits</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Barilla Pasta Sauce Jar Arrabbiata</t>
+          <t>Munchy's Cream Cracker Biscuits</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>400 gm</t>
+          <t>300 gm</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>৳ 599</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Origin: Italy Barilla ARRABBIATA combines carefully selected fresh tomatoes, garlic, and parsley with a tantalizing touch of crushed green chili peppers to create authentic Italian meals with a memorable kick. Simply combine with your favourite pasta for a delicious meal.  • TRUSTED: N°1 IN ITALY with over 140 years of craftsmanship, making high quality pasta that COOKS PERFECTLY EVERY TIME.</t>
-        </is>
-      </c>
+          <t>৳ 520</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Pasta &amp; Macaroni</t>
+          <t>Cream Biscuits</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Knorr Soup Chicken Corn</t>
+          <t>Kolson Macaroni Shell</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>24 gm</t>
+          <t>400 gm</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>৳ 45</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Origin: Bangladesh Manufacturer: Unilever Bangladesh Ltd. Classic chicken corn soup with carefully chosen real chicken and the best-quality vegetables. Just add one egg and enjoy restaurant-like taste at home. No added preservatives Low-fat. Halal certified Ingredients: Corn starch, sugar, salt, dehydrated corn bits, soy protein, dehydrated chicken meat, hydrolyzed vegetable protein, hydrogenated vegetable oil, flavour enhancer, dehydrated leeks, spices, chicken and corn flavours (Nature identical and artificial) May contain a small amount of gluten, shrimp, celery, mustard, milk and nuts. Nutrition: Energy, Protein, fat(saturated and trans) , carbohydrates (sugar and dietary fibre), sodium</t>
-        </is>
-      </c>
+          <t>৳ 85</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Soups</t>
+          <t>Pasta &amp; Macaroni</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Nestle Maggi Healthy Soup Thai Sachet</t>
+          <t>Barilla Pasta Sauce Jar Arrabbiata</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>35 gm</t>
+          <t>400 gm</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>৳ 50</t>
+          <t>৳ 599</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Embark on a gastronomic journey to the vibrant streets of Thailand with Nestlé Maggi Healthy Soup Thai Sachet. In a 35 gm sachet, this culinary gem encapsulates the exotic essence of Thai cuisine, delivering a taste of authentic flavors right to your table.  Maggi Healthy Soup Thai Sachet captures the essence of Thai gastronomy with a blend of aromatic herbs, spices, and carefully selected ingredients. Each spoonful transports you to bustling Thai markets and bustling street food stalls.  Bringing the magic of Thai cuisine to your kitchen has never been easier. With a simple preparation process, this soup sachet allows you to relish the rich taste of Thai herbs and spices without compromising on authenticity.</t>
+          <t>Origin: Italy Barilla ARRABBIATA combines carefully selected fresh tomatoes, garlic, and parsley with a tantalizing touch of crushed green chili peppers to create authentic Italian meals with a memorable kick. Simply combine with your favourite pasta for a delicious meal.  • TRUSTED: N°1 IN ITALY with over 140 years of craftsmanship, making high quality pasta that COOKS PERFECTLY EVERY TIME.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Soups</t>
+          <t>Pasta &amp; Macaroni</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Almonds (Kath Badam)</t>
+          <t>Knorr Soup Chicken Corn</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>100 gm</t>
+          <t>24 gm</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>৳ 139</t>
+          <t>৳ 45</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Almonds are a fantastic source of antioxidants. Nuts are low in carbs but high in healthy fats, protein and fiber. The magnesium in almonds may additionally help lower blood pressure levels. Almonds Can Lower Cholesterol Levels. Eating Almonds Reduces Hunger, Lowering Your Overall Calorie Intake Almonds boast an impressive nutrient profile. A 1-ounce (28-gram) serving of almonds contains : • Fiber: 3.5 grams • Protein: 6 grams • Fat: 14 grams (9 of which are monounsaturated) • Vitamin E: 37% of the RDI • Manganese: 32% of the RDI • Magnesium: 20% of the RDI • They also contain a decent amount of copper, vitamin B2 (riboflavin) and phosphorus.</t>
+          <t>Origin: Bangladesh Manufacturer: Unilever Bangladesh Ltd. Classic chicken corn soup with carefully chosen real chicken and the best-quality vegetables. Just add one egg and enjoy restaurant-like taste at home. No added preservatives Low-fat. Halal certified Ingredients: Corn starch, sugar, salt, dehydrated corn bits, soy protein, dehydrated chicken meat, hydrolyzed vegetable protein, hydrogenated vegetable oil, flavour enhancer, dehydrated leeks, spices, chicken and corn flavours (Nature identical and artificial) May contain a small amount of gluten, shrimp, celery, mustard, milk and nuts. Nutrition: Energy, Protein, fat(saturated and trans) , carbohydrates (sugar and dietary fibre), sodium</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Popcorn &amp; Nuts</t>
+          <t>Soups</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Act II Popcorn Golden Sizzle</t>
+          <t>Nestle Maggi Healthy Soup Thai Sachet</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>50 gm</t>
+          <t>35 gm</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>৳ 25</t>
+          <t>৳ 50</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Origin: India Description This is a Vegetarian product. • Goodness of corn • Hot and fresh popcorn • 0(Zero)g trans fats • Prepare in 3 Minutes</t>
+          <t>Embark on a gastronomic journey to the vibrant streets of Thailand with Nestlé Maggi Healthy Soup Thai Sachet. In a 35 gm sachet, this culinary gem encapsulates the exotic essence of Thai cuisine, delivering a taste of authentic flavors right to your table.  Maggi Healthy Soup Thai Sachet captures the essence of Thai gastronomy with a blend of aromatic herbs, spices, and carefully selected ingredients. Each spoonful transports you to bustling Thai markets and bustling street food stalls.  Bringing the magic of Thai cuisine to your kitchen has never been easier. With a simple preparation process, this soup sachet allows you to relish the rich taste of Thai herbs and spices without compromising on authenticity.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Popcorn &amp; Nuts</t>
+          <t>Soups</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Bangas Grand Choice Salted Biscuit</t>
+          <t>Almonds (Kath Badam)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>70 gm</t>
+          <t>100 gm</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>৳ 20</t>
+          <t>৳ 139</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Ingredients : Flour, Sugar, Salt, Butter, Milk, Cumin, Egg Powder, Nuts Powder, Natural Colouring Agent, Preservatives and Flavours.</t>
+          <t>Almonds are a fantastic source of antioxidants. Nuts are low in carbs but high in healthy fats, protein and fiber. The magnesium in almonds may additionally help lower blood pressure levels. Almonds Can Lower Cholesterol Levels. Eating Almonds Reduces Hunger, Lowering Your Overall Calorie Intake Almonds boast an impressive nutrient profile. A 1-ounce (28-gram) serving of almonds contains : • Fiber: 3.5 grams • Protein: 6 grams • Fat: 14 grams (9 of which are monounsaturated) • Vitamin E: 37% of the RDI • Manganese: 32% of the RDI • Magnesium: 20% of the RDI • They also contain a decent amount of copper, vitamin B2 (riboflavin) and phosphorus.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Salted Biscuits</t>
+          <t>Popcorn &amp; Nuts</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Olympic Tip Crispy Salted Biscuits</t>
+          <t>Pran Badam Bhaja 18 gm</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>60 gm</t>
+          <t>4 pcs</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>৳ 15</t>
+          <t>৳ 40</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Salted Biscuits</t>
+          <t>Popcorn &amp; Nuts</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Wonder Muffin Cake 15 gm</t>
+          <t>Bangas Grand Choice Salted Biscuit</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>6 pcs</t>
+          <t>70 gm</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>৳ 60</t>
+          <t>৳ 20</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origin: Bangladesh Manufacturer: Habiganj Agro Ltd. Chocolate muffin cake. Ingredients: Flour, sugar, sunflower oil, egg, salt, milk solids, cocoa solids, starch, xanthan gum, leavening agentsঃ sodium bicarbonate, aluminium sulphate, sodium aluminium phosphate, dextrose, permitted emulsifier, mono and diglycerides of fatty acids, sodium stearoyl lactate, sorbic acid, added chocolate and vanilla flavor. Nutrition: Fat 31% , carbohydrate 11% , Cholesterol 23% </t>
+          <t>Ingredients : Flour, Sugar, Salt, Butter, Milk, Cumin, Egg Powder, Nuts Powder, Natural Colouring Agent, Preservatives and Flavours.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Cakes</t>
+          <t>Salted Biscuits</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Olympic Dry Cake Biscuit</t>
+          <t>Olympic Tip Crispy Salted Biscuits</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>290 gm</t>
+          <t>60 gm</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>৳ 150</t>
+          <t>৳ 15</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Cakes</t>
+          <t>Salted Biscuits</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ahmed White Vinegar</t>
+          <t>Wonder Muffin Cake 15 gm</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>325 ml</t>
+          <t>6 pcs</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>৳ 50</t>
+          <t>৳ 60</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>INGREDIENTS: Food Grade Acetic Acid (E-260) &amp; Distilled Water.</t>
+          <t xml:space="preserve">Origin: Bangladesh Manufacturer: Habiganj Agro Ltd. Chocolate muffin cake. Ingredients: Flour, sugar, sunflower oil, egg, salt, milk solids, cocoa solids, starch, xanthan gum, leavening agentsঃ sodium bicarbonate, aluminium sulphate, sodium aluminium phosphate, dextrose, permitted emulsifier, mono and diglycerides of fatty acids, sodium stearoyl lactate, sorbic acid, added chocolate and vanilla flavor. Nutrition: Fat 31% , carbohydrate 11% , Cholesterol 23% </t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Salad Dressing</t>
+          <t>Cakes</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Bragg Organic Apple Cider Vinegar</t>
+          <t>Olympic Dry Cake Biscuit</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>473 ml</t>
+          <t>290 gm</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>৳ 819</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Origin: USA Manufacturer: Bragg Live Food Products Bragg® Organic Apple Cider Vinegar is made from delicious organically grown apples and contains the amazing ‘Mother’ of vinegar. The ‘Mother’ consists of strands of proteins, enzymes, and friendly bacteria that give the product its murky appearance. ACV for your daily dose of wellness:   • Helps maintain a healthy weight range • Delivers prebiotics to support a healthy gut • Supports a healthy immune system • Helps maintain normal glucose levels</t>
-        </is>
-      </c>
+          <t>৳ 150</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Salad Dressing</t>
+          <t>Cakes</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Revival Karak Masala Tea</t>
+          <t>Pran Synthetic Vinegar</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>650 ml</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>৳ 170</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>৳ 55</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Pran synthetic vinegar is an acitic liquid which has different uses. It can be used as a food preservative.We can also use it in food preparation and salad dressing.</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Tea</t>
+          <t>Salad Dressing</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Revival Karak Masala Tea (Bundle Pack) 200 gm</t>
+          <t>Ahmed White Vinegar</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2 pcs</t>
+          <t>325 ml</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>৳ 340</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>৳ 50</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>INGREDIENTS: Food Grade Acetic Acid (E-260) &amp; Distilled Water.</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Tea</t>
+          <t>Salad Dressing</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>RC Q Lemon Pet</t>
+          <t>Fresh Premium Black Tea</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>250 ml</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>৳ 25</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>৳ 90</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Fresh Premium Black Tea is a type of tea made from the leaves of the Camellia sinensis plant that have undergone a complete oxidation process, resulting in a robust and flavorful brew. Black tea is known for its strong flavor, dark color, and caffeine content, making it a popular choice for tea enthusiasts.</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Soft Drinks</t>
+          <t>Tea</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Revival Karak Masala Tea</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>600 ml</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>৳ 50</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Highlights: ORIGINAL FLAVOUR: Enjoy the deliciously refreshing original cola flavour of Coca-Cola BEST ENJOYED ICE-COLD: Enjoy this soft drink ice-cold for maximum refreshment YOUR MEAL PARTNER: Make meals tastier with a combo of your favourite dish and a chilled glass of Coke SHARE A COKE: Enjoy the real magic of everyday moments and share this cold drink with family &amp; friends ANYTIME &amp; ANYWHERE: Enjoy Coca-Cola’s crisp, delicious taste anytime with meals, at parties, or family gatherings RECYCLABLE BOTTLES: Coca-Cola comes in 100% recyclable bottle packaging.  Description: Happiness is about creating Real Magic from everyday moments, turning up the energy during an afternoon lull, during those hot and long exhausting days with the crisp, delicious taste of Coca-Cola Original. Make your meals tastier &amp; share a Coke ice-cold for maximum refreshment. Enjoy this carbonated soft drink while playing fun games, binge-watching your favourite series, listening to your favourite songs and making the most of your break moments. The oh-so refreshing fizz and original taste of Coca-Cola soft drink make life’s special moments a little more special.</t>
-        </is>
-      </c>
+          <t>৳ 170</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Soft Drinks</t>
+          <t>Tea</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Nestle Coffee Mate Creamer</t>
+          <t>RC Q Lemon Pet</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>250 ml</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>৳ 1,052</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Elevate your coffee experience with Nestlé Coffee Mate Creamer, a 1-kilogram canister of creamy goodness that transforms your daily cup of coffee into a rich and indulgent treat. Specially crafted to enhance your coffee's flavor and texture, this creamer is a beloved addition to coffee enthusiasts worldwide. With its versatility, convenience, and trusted quality, it's no wonder why Coffee Mate has become a beloved addition to coffee cups around the world. Experience the richness and convenience of Nestlé Coffee Mate Creamer and savor the perfect coffee moment, your way.</t>
-        </is>
-      </c>
+          <t>৳ 25</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Soft Drinks</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Nescafe Original Coffee (Indonesia)</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>600 ml</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>৳ 1,159</t>
+          <t>৳ 50</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nescafe Original Coffee Savor the wonderfully rich and refreshing aroma of this medium-dark roast.Quality beans has been blend then roast them to medium-dark deliciousness to deliver the pleasurable experience you’ve come to expect from Nescafe Original Coffee. Let the intense taste of Nescafe Original Coffee awaken your senses to new opportunities as the rich aroma of this distinctive blend unfolds. </t>
+          <t>Highlights: ORIGINAL FLAVOUR: Enjoy the deliciously refreshing original cola flavour of Coca-Cola BEST ENJOYED ICE-COLD: Enjoy this soft drink ice-cold for maximum refreshment YOUR MEAL PARTNER: Make meals tastier with a combo of your favourite dish and a chilled glass of Coke SHARE A COKE: Enjoy the real magic of everyday moments and share this cold drink with family &amp; friends ANYTIME &amp; ANYWHERE: Enjoy Coca-Cola’s crisp, delicious taste anytime with meals, at parties, or family gatherings RECYCLABLE BOTTLES: Coca-Cola comes in 100% recyclable bottle packaging.  Description: Happiness is about creating Real Magic from everyday moments, turning up the energy during an afternoon lull, during those hot and long exhausting days with the crisp, delicious taste of Coca-Cola Original. Make your meals tastier &amp; share a Coke ice-cold for maximum refreshment. Enjoy this carbonated soft drink while playing fun games, binge-watching your favourite series, listening to your favourite songs and making the most of your break moments. The oh-so refreshing fizz and original taste of Coca-Cola soft drink make life’s special moments a little more special.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Soft Drinks</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Chaldal Sippy Orange Drinks</t>
+          <t>Nestle Coffee Mate Creamer</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>৳ 249</t>
+          <t>৳ 1,052</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sippy is your ultimate hydration partner. Chaldal Sippy Powder Drinks contain all the essential vitamins and minerals, including vitamin A, vitamin D, vitamin C, iodine, zinc, and iron, necessary for your body to function properly. Sippy makes drinking water more enjoyable, ensuring that your family stays hydrated. No need to add sugar; simply mix the powder with water and enjoy a delicious drink on the go. </t>
+          <t>Elevate your coffee experience with Nestlé Coffee Mate Creamer, a 1-kilogram canister of creamy goodness that transforms your daily cup of coffee into a rich and indulgent treat. Specially crafted to enhance your coffee's flavor and texture, this creamer is a beloved addition to coffee enthusiasts worldwide. With its versatility, convenience, and trusted quality, it's no wonder why Coffee Mate has become a beloved addition to coffee cups around the world. Experience the richness and convenience of Nestlé Coffee Mate Creamer and savor the perfect coffee moment, your way.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Syrups &amp; Powder Drinks</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Chaldal Sippy Orange Drinks 500 gm And Crown Dabbas Dates 1 kg (Combo Offer)</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
+          <t>Nescafe Original Coffee (Indonesia)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>200 gm</t>
+        </is>
+      </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>৳ 769</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>৳ 1,159</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nescafe Original Coffee Savor the wonderfully rich and refreshing aroma of this medium-dark roast.Quality beans has been blend then roast them to medium-dark deliciousness to deliver the pleasurable experience you’ve come to expect from Nescafe Original Coffee. Let the intense taste of Nescafe Original Coffee awaken your senses to new opportunities as the rich aroma of this distinctive blend unfolds. </t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Syrups &amp; Powder Drinks</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Pran Drinko Litchi Juice</t>
+          <t>Chaldal Sippy Orange Drinks</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>250 ml</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>৳ 30</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>৳ 249</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sippy is your ultimate hydration partner. Chaldal Sippy Powder Drinks contain all the essential vitamins and minerals, including vitamin A, vitamin D, vitamin C, iodine, zinc, and iron, necessary for your body to function properly. Sippy makes drinking water more enjoyable, ensuring that your family stays hydrated. No need to add sugar; simply mix the powder with water and enjoy a delicious drink on the go. </t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Juice</t>
+          <t>Syrups &amp; Powder Drinks</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Bruvana Sports+ Electrolyte Beverage (Pineapple Flavor)</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>250 ml</t>
-        </is>
-      </c>
+          <t>Chaldal Sippy Orange Drinks 500 gm And Crown Dabbas Dates 1 kg (Combo Offer)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>৳ 35</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Bruvana Sports+ Electrolyte Beverage Pineapple drink is a refreshing and hydrating beverage designed for athletes and active individuals. With a delicious Pineapple flavor, it replenishes essential electrolytes lost during exercise and provides energy for optimal performance. It contains no artificial colors, flavors, or sweeteners and is perfect for pre, during, or post-workout hydration.</t>
-        </is>
-      </c>
+          <t>৳ 769</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Juice</t>
+          <t>Syrups &amp; Powder Drinks</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Mum Drinking Water</t>
+          <t>Pran Drinko Litchi Juice</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>5 ltr</t>
+          <t>250 ml</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>৳ 80+৳3</t>
+          <t>৳ 30</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Juice</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Mum Drinking Water</t>
+          <t>Bruvana Sports+ Electrolyte Beverage (Pineapple Flavor)</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2 ltr</t>
+          <t>250 ml</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>৳ 40</t>
+          <t>৳ 35</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUM is a pure natural mineral drinking water. People have trust on MUM because, MUM strictly follows the guideline &amp; standard specification of quality level of WHO, IBWA, ICDDRB, Food and Nutrition Dept. of DU. </t>
+          <t>Bruvana Sports+ Electrolyte Beverage Pineapple drink is a refreshing and hydrating beverage designed for athletes and active individuals. With a delicious Pineapple flavor, it replenishes essential electrolytes lost during exercise and provides energy for optimal performance. It contains no artificial colors, flavors, or sweeteners and is perfect for pre, during, or post-workout hydration.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Juice</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Chickpea Flour (Boot Beshon)</t>
+          <t>Mum Drinking Water</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>5 ltr</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>৳ 69</t>
+          <t>৳ 80+৳3</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Flour</t>
+          <t>Water</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Fresh White Flour (Maida)</t>
+          <t>Mum Drinking Water</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2 kg</t>
+          <t>2 ltr</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>৳ 145</t>
+          <t>৳ 40</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Fresh White Flour, commonly known as Maida, is a finely milled and refined wheat flour. The 2 kg packaging indicates that it contains approximately 2 kilograms of white flour.</t>
+          <t xml:space="preserve">MUM is a pure natural mineral drinking water. People have trust on MUM because, MUM strictly follows the guideline &amp; standard specification of quality level of WHO, IBWA, ICDDRB, Food and Nutrition Dept. of DU. </t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Flour</t>
+          <t>Water</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Date Crown Lulu Dates</t>
+          <t>Chickpea Flour (Boot Beshon)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>400 gm</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>৳ 249</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
-        </is>
-      </c>
+          <t>৳ 69</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Nuts &amp; Dried Fruits</t>
+          <t>Flour</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ajwa Premium Dates</t>
+          <t>Fresh White Flour (Maida)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>2 kg</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>৳ 693</t>
+          <t>৳ 145</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Origin: Saudi Arabia Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Free Ajwa dates Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm Ajwa Dates (0.25 cup) contains 30g total carbs, 27g net carbs, 0g fat, 1g protein, and 120 calories</t>
+          <t>Fresh White Flour, commonly known as Maida, is a finely milled and refined wheat flour. The 2 kg packaging indicates that it contains approximately 2 kilograms of white flour.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Nuts &amp; Dried Fruits</t>
+          <t>Flour</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Cadbury Cocoa Powder Pack</t>
+          <t>Date Crown Lulu Dates</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>125 gm</t>
+          <t>400 gm</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>৳ 470</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>৳ 249</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Baking Ingredients</t>
+          <t>Nuts &amp; Dried Fruits</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Goalini Plus Condensed Milk</t>
+          <t>Maryam Premium Dates</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>400 gm</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>৳ 105</t>
+          <t>৳ 599</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brand- Goalini Product type- Condensed Milk 400gm Technology AVP Switzerland. Ingredient: Skimmed Milk Powder, whey Powder, Super Refined Sugar, Pure Vegetable Fat8.0%, Lactose &amp; RO Treated Water. </t>
+          <t>Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Baking Ingredients</t>
+          <t>Nuts &amp; Dried Fruits</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Cake Mold</t>
+          <t>Cadbury Cocoa Powder Pack</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3 pcs</t>
+          <t>125 gm</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>৳ 135</t>
+          <t>৳ 470</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Baking Tools</t>
+          <t>Baking Ingredients</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Small Measurement Mug</t>
+          <t>Goalini Plus Condensed Milk</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>400 gm</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>৳ 179</t>
+          <t>৳ 105</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t xml:space="preserve">500 ml, Material: Heavy plastic, Made in china </t>
+          <t xml:space="preserve">Brand- Goalini Product type- Condensed Milk 400gm Technology AVP Switzerland. Ingredient: Skimmed Milk Powder, whey Powder, Super Refined Sugar, Pure Vegetable Fat8.0%, Lactose &amp; RO Treated Water. </t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Baking Tools</t>
+          <t>Baking Ingredients</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Ahmed Custard Powder</t>
+          <t>Stainless Steel Spatula</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>160 gm</t>
+          <t>each</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>৳ 85</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Ingredients: Corn Starch, Permitted Food Color (Sunset Yellow FCF E-110) &amp; Flavor.</t>
-        </is>
-      </c>
+          <t>৳ 239</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Baking &amp; Dessert Mixes</t>
+          <t>Baking Tools</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Foster Clark's Baking Powder</t>
+          <t>Transparent Disposable Piping Bags (8.5"x12.5")</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>225 gm</t>
+          <t>100 pcs</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>৳ 335</t>
+          <t>৳ 469</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Foster Clark's Baking Powder specially prepared to help you make delicious sweet dishes and various sauces to garnish your savory dishes. To obtain the fine light texture which you desire in your cakes and pastries, replace one-eighth of the flour with Foster Clark's Baking Powder.</t>
+          <t>Piping bags are necessary for cake decoration. Fill these piping bags with cream and squeeze these with your hand to make designs on the cake. You can fit nozzles to these piping bags for designing easily.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Baking &amp; Dessert Mixes</t>
+          <t>Baking Tools</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AG Food Chicken Salami 11-12 pcs</t>
+          <t>Ahmed Custard Powder</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>160 gm</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>৳ 250</t>
+          <t>৳ 85</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Country Of Origin: Bangladesh</t>
+          <t>Ingredients: Corn Starch, Permitted Food Color (Sunset Yellow FCF E-110) &amp; Flavor.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Chicken Snacks</t>
+          <t>Baking &amp; Dessert Mixes</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>AG Food Chicken Mini Samosa</t>
+          <t>Foster Clark's Baking Powder</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>250 gm</t>
+          <t>225 gm</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>৳ 220</t>
+          <t>৳ 335</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>23-25 pcs crispy and delicious Chicken Mini Samosa.Storage:Keep frozen (-18°C or below). Do not refreeze once defrosted.Filling: Chicken meat, Salt, Sugar, Spices, Green Chili, Onion, and Soybean Oil.Pastry: Flour, Corn Starch, Salt, Water &amp; Soybean Oil.</t>
+          <t>Foster Clark's Baking Powder specially prepared to help you make delicious sweet dishes and various sauces to garnish your savory dishes. To obtain the fine light texture which you desire in your cakes and pastries, replace one-eighth of the flour with Foster Clark's Baking Powder.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Chicken Snacks</t>
+          <t>Baking &amp; Dessert Mixes</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Golden Harvest Deshi Paratha 20 pcs</t>
+          <t>AG Food Chicken Salami 11-12 pcs</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1300 gm</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>৳ 310</t>
+          <t>৳ 250</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Get a classic golden frozen paratha family pack from us as your daily breakfast. One pack covers for one family. Hassle-free and easy to serve. Just tear off the packet and put it on the griddle for a few minutes and then serve it. It’s a good food for your good health.</t>
+          <t>Country Of Origin: Bangladesh</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Frozen Parathas &amp; Roti</t>
+          <t>Chicken Snacks</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Jhatpot Low Fat Paratha 1200 gm</t>
+          <t>AG Food Chicken Mini Samosa</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>20 pcs</t>
+          <t>250 gm</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>৳ 250</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>৳ 220</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>23-25 pcs crispy and delicious Chicken Mini Samosa.Storage:Keep frozen (-18°C or below). Do not refreeze once defrosted.Filling: Chicken meat, Salt, Sugar, Spices, Green Chili, Onion, and Soybean Oil.Pastry: Flour, Corn Starch, Salt, Water &amp; Soybean Oil.</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Frozen Parathas &amp; Roti</t>
+          <t>Chicken Snacks</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Golden Harvest Mini Singara 20 pcs</t>
+          <t>Golden Harvest Deshi Paratha 20 pcs</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>300 gm</t>
+          <t>1300 gm</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>৳ 125</t>
+          <t>৳ 310</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Origin: Bangladesh  Manufacturer: Golden Harvest Agro industries Ltd.  Delicious mini aloo singara.  Halal certified  HACCP certified  ISO certified  Ingredients: Potato, onion, nuts, ginger, garlic, onion, chili, cumin, turmeric, cinnamon, coriander leaf, soybean oil, wheat flour, sugar, water, black cumin seeds.</t>
+          <t>Get a classic golden frozen paratha family pack from us as your daily breakfast. One pack covers for one family. Hassle-free and easy to serve. Just tear off the packet and put it on the griddle for a few minutes and then serve it. It’s a good food for your good health.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Vegetable Snacks</t>
+          <t>Frozen Parathas &amp; Roti</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Golden Harvest Aloo Puri 10 pcs</t>
+          <t>Jhatpot Low Fat Paratha 1200 gm</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>454 gm</t>
+          <t>20 pcs</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>৳ 140</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Origin: Bangladesh  Manufacturer: Golden Harvest Agro industries Ltd.  Delicious aloo puri  Halal certified  HACCP certified  ISO certified  Ingredients: Potato, soybean oil, salt, sugar, ginger, garlic, onion, mixed spices, bay leaf, coriander leaf, MSG, chili, cinnamon powder, wheat flour, margarine, water.</t>
-        </is>
-      </c>
+          <t>৳ 250</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Vegetable Snacks</t>
+          <t>Frozen Parathas &amp; Roti</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Hibiscus Mushrooms Choice Whole Can</t>
+          <t>Golden Harvest Mini Singara 20 pcs</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>425 gm</t>
+          <t>300 gm</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>৳ 179</t>
+          <t>৳ 125</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Hibiscus Mushrooms Choice Whole are a gourmet delight, featuring carefully selected whole mushrooms that have been harvested at their peak of freshness. These mushrooms are packed in a 425-gram can to preserve their quality and flavor. Renowned for their versatility and delicious taste, they serve as a culinary canvas to elevate your dishes to new heights of flavor and presentation.</t>
+          <t>Origin: Bangladesh  Manufacturer: Golden Harvest Agro industries Ltd.  Delicious mini aloo singara.  Halal certified  HACCP certified  ISO certified  Ingredients: Potato, onion, nuts, ginger, garlic, onion, chili, cumin, turmeric, cinnamon, coriander leaf, soybean oil, wheat flour, sugar, water, black cumin seeds.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Mushroom Cans</t>
+          <t>Vegetable Snacks</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Quality Beef Classic Sausage</t>
+          <t>Golden Harvest Aloo Puri 10 pcs</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>280 gm</t>
+          <t>454 gm</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>৳ 370</t>
+          <t>৳ 140</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Antibiotic-free, Halal Certified, Own Farmed chicken, ISO Certified, No Preservatives, MBM Free</t>
+          <t>Origin: Bangladesh  Manufacturer: Golden Harvest Agro industries Ltd.  Delicious aloo puri  Halal certified  HACCP certified  ISO certified  Ingredients: Potato, soybean oil, salt, sugar, ginger, garlic, onion, mixed spices, bay leaf, coriander leaf, MSG, chili, cinnamon powder, wheat flour, margarine, water.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Beef Snacks</t>
+          <t>Vegetable Snacks</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Quality Canadian Beef Bacon</t>
+          <t>Hibiscus Mushrooms Choice Whole Can</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>425 gm</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>৳ 320</t>
+          <t>৳ 179</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antibiotic-free, Halal Certified, Own Farmed chicken, ISO Certified, No Preservatives, MBM Free </t>
+          <t>Hibiscus Mushrooms Choice Whole are a gourmet delight, featuring carefully selected whole mushrooms that have been harvested at their peak of freshness. These mushrooms are packed in a 425-gram can to preserve their quality and flavor. Renowned for their versatility and delicious taste, they serve as a culinary canvas to elevate your dishes to new heights of flavor and presentation.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Beef Snacks</t>
+          <t>Mushroom Cans</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Green Park Baby Corn</t>
+          <t>Quality Beef Classic Sausage</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>425 gm</t>
+          <t>280 gm</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>৳ 150</t>
+          <t>৳ 370</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Good for Pasta, Piza, Noodles, Sandwich 2. Halal </t>
+          <t>Antibiotic-free, Halal Certified, Own Farmed chicken, ISO Certified, No Preservatives, MBM Free</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Vegetable Cans</t>
+          <t>Beef Snacks</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Garden Fresh Whole Baby Corn</t>
+          <t>Quality Canadian Beef Bacon</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>425 gm</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>৳ 115</t>
+          <t>৳ 320</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Garden Fresh Whole Baby Corn, a delicious and nutritious meal option for any time of day. These baby corns are made with the finest ingredients and are sure to satisfy your cravings. Each jar contains 425 grams of baby corns, providing you with a generous serving size that can be shared with family and friends. The baby corns are made by Garden Fresh, a trusted brand known for its high-quality products.</t>
+          <t xml:space="preserve">Antibiotic-free, Halal Certified, Own Farmed chicken, ISO Certified, No Preservatives, MBM Free </t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Vegetable Cans</t>
+          <t>Beef Snacks</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Nautilus Lite Sandwich Tuna In Spring Water</t>
+          <t>Green Park Baby Corn</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>165 gm</t>
+          <t>425 gm</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>৳ 323</t>
+          <t>৳ 150</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Nautilus Lite Sandwich Tuna in Spring Water is a delicious and wholesome seafood option that combines the natural goodness of tuna with the purity of spring water. This tuna is thoughtfully sourced and prepared to offer a healthy and convenient protein source that's perfect for creating sandwiches, salads, wraps, and more. Packaged in a convenient 165-gram can, Nautilus Lite Sandwich Tuna in Spring Water is your go-to choice for a light and satisfying meal or snack.</t>
+          <t xml:space="preserve">1. Good for Pasta, Piza, Noodles, Sandwich 2. Halal </t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Fish Cans</t>
+          <t>Vegetable Cans</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Nautilus Lite Tuna Steak In Spring Water</t>
+          <t>Garden Fresh Whole Baby Corn</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>165 gm</t>
+          <t>425 gm</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>৳ 319</t>
+          <t>৳ 115</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Nautilus Lite Tuna Steak in Spring Water is a premium seafood product that brings the exquisite taste of tender tuna steaks, preserved in pristine spring water, to your culinary creations. These tuna steaks are expertly processed and thoughtfully packaged in a 165-gram can, making them a versatile and nutritious addition to your meals. With their succulent texture and natural flavor, Nautilus Lite Tuna Steak in Spring Water allows you to savor the pure essence of tuna in your favorite dishes.</t>
+          <t>Garden Fresh Whole Baby Corn, a delicious and nutritious meal option for any time of day. These baby corns are made with the finest ingredients and are sure to satisfy your cravings. Each jar contains 425 grams of baby corns, providing you with a generous serving size that can be shared with family and friends. The baby corns are made by Garden Fresh, a trusted brand known for its high-quality products.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Fish Cans</t>
+          <t>Vegetable Cans</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Figaro Stuffed Green Olive</t>
+          <t>Nautilus Lite Sandwich Tuna In Spring Water</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>340 gm</t>
+          <t>165 gm</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>৳ 150</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>৳ 323</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Nautilus Lite Sandwich Tuna in Spring Water is a delicious and wholesome seafood option that combines the natural goodness of tuna with the purity of spring water. This tuna is thoughtfully sourced and prepared to offer a healthy and convenient protein source that's perfect for creating sandwiches, salads, wraps, and more. Packaged in a convenient 165-gram can, Nautilus Lite Sandwich Tuna in Spring Water is your go-to choice for a light and satisfying meal or snack.</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Canned Fruits &amp; Sweets</t>
+          <t>Fish Cans</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Figaro Sliced Green Olives</t>
+          <t>Nautilus Lite Tuna Steak In Spring Water</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>340 gm</t>
+          <t>165 gm</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>৳ 150</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>৳ 319</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Nautilus Lite Tuna Steak in Spring Water is a premium seafood product that brings the exquisite taste of tender tuna steaks, preserved in pristine spring water, to your culinary creations. These tuna steaks are expertly processed and thoughtfully packaged in a 165-gram can, making them a versatile and nutritious addition to your meals. With their succulent texture and natural flavor, Nautilus Lite Tuna Steak in Spring Water allows you to savor the pure essence of tuna in your favorite dishes.</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Canned Fruits &amp; Sweets</t>
+          <t>Fish Cans</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Soft Shell Crab Tempura</t>
+          <t>Figaro Stuffed Green Olive</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>340 gm</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>৳ 599</t>
+          <t>৳ 150</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Fish Snacks</t>
+          <t>Canned Fruits &amp; Sweets</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>OceanRia Fish Sandwich</t>
+          <t>Figaro Sliced Green Olives</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>340 gm</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>৳ 599</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Origin: Malaysia</t>
-        </is>
-      </c>
+          <t>৳ 150</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Fish Snacks</t>
+          <t>Canned Fruits &amp; Sweets</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sugar Free Gold 100 Pellets</t>
+          <t>Soft Shell Crab Tempura</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>10 gm</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>৳ 120</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Sugar Free Gold, available in a convenient 110-pellet pack with a total weight of 11 grams, is your perfect companion in maintaining a sugar-free and low-calorie lifestyle. It is a trusted artificial sweetener that provides a delightful sweetness without the calories and health concerns associated with regular sugar. Make the switch to this trusted artificial sweetener and enjoy your favorite beverages and dishes without compromising on taste or your health goals. Trust in Sugar Free Gold to provide you with the sweetness you desire without the calories you want to avoid.</t>
-        </is>
-      </c>
+          <t>৳ 599</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Diabetic Food</t>
+          <t>Fish Snacks</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Bashundhara Brown Flour (Lal Atta)</t>
+          <t>OceanRia Fish Sandwich</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>৳ 78</t>
+          <t>৳ 599</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Bashundhara Brown Flour, also known as Lal Atta, is a type of whole wheat flour that is commonly used in South Asian cuisine. It is made from grinding whole wheat grains, including the bran, germ, and endosperm, which gives it a brown color and a slightly coarser texture compared to refined wheat flour.</t>
+          <t>Origin: Malaysia</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
+        <is>
+          <t>Fish Snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Bisk Club Sugar Free Cracker Biscuit</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>180 gm</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>৳ 75</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Diabetic Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Sugar Free Gold 100 Pellets</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>10 gm</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>৳ 120</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Sugar Free Gold, available in a convenient 110-pellet pack with a total weight of 11 grams, is your perfect companion in maintaining a sugar-free and low-calorie lifestyle. It is a trusted artificial sweetener that provides a delightful sweetness without the calories and health concerns associated with regular sugar. Make the switch to this trusted artificial sweetener and enjoy your favorite beverages and dishes without compromising on taste or your health goals. Trust in Sugar Free Gold to provide you with the sweetness you desire without the calories you want to avoid.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
         <is>
           <t>Diabetic Food</t>
         </is>

--- a/Chaldal_scraper/scrapped_data/Chaldaal_rawdata_v1.0.xlsx
+++ b/Chaldal_scraper/scrapped_data/Chaldaal_rawdata_v1.0.xlsx
@@ -1895,20 +1895,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Crown Dabbas Dates</t>
+          <t>Date Crown Lulu Dates</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>400 gm</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>৳ 549</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>৳ 249</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Popular</t>
@@ -1918,16 +1922,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chaldal Sippy Orange Drinks 500 gm And Crown Dabbas Dates 1 kg (Combo Offer)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>Maryam Premium Dates</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>৳ 769</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>৳ 599</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Popular</t>
@@ -1937,22 +1949,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Deshi Peyaj (Local Onion) ± 50 gm</t>
+          <t>Chaldal Premium Rui Fish Headless Curry Cut and Deshi Roshun (Combo)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>৳ 69</t>
+          <t>৳ 369</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30-35 pcs  Though all vegetables are important for health, certain kinds offer unique benefits.  Onions are members of the Allium genus of flowering plants that also includes garlic, shallots, leeks and chives.  These vegetables contain various vitamins, minerals and potent plant compounds that have been shown to promote health in many ways.  In fact, the medicinal properties of onions have been recognized since ancient times, when they were used to treat ailments like headaches, heart disease and mouth sores.  Nutritional facts/Ingredients : Benefits: -Packed With Nutrients -May Benefit Heart Health -Loaded With Antioxidants -Contain Cancer-Fighting Compounds -Help Control Blood Sugar -May Boost Bone Density -Have Antibacterial Properties -May Boost Digestive Health -Easy to Add to Your Diet.</t>
+          <t>Deshi Roshun (Garlic Local) ±25 gm 500 gm  Chaldal Premium Rui Fish Headless Curry Cut (7-11 pcs) ±30 gm 500 gm  We are offering Premium Rui With means This fishes are 100% dish bread and specially collected from Rajshahi.  Our RUI fish are mentioned as Medium size with means each of the live fish will have to be between 1.8 KG to 2.5 KG.  Bengali cut pieces of Freshwater Rui that's caught fresh, cut, cleaned.  These are Medium pieces of Bengali Cuts of freshwater Rui, that are perfect for curries or fish fry. Rui is a soft-textured bony fish with a subtle flavour.  Chaldal fish &amp; seafood is sourced from approved local fishermen Regularly, they contain no added chemicals.  Features of our premium Rui fish:  1. 100% native cotton fish. 2. Our fishes are sourced from selected fish farms in Rajshahi where systematic fish farming is ensured. 3. Our premium fish are processed under our own supervision by skilled artisans. 4. Clean water is used when poaching premium fish. 5. Safe packing is done in compliance with complete hygiene rules. 6. Fish are caught and processed on the same day.  45-50 Garlic is an excellent source of minerals and vitamins that are essential for optimum health. The bulbs are one of the richest sources of potassium, iron, calcium, magnesium, manganese, zinc, and selenium. Selenium is a heart-healthy mineral, and is an important cofactor for antioxidant enzymes within the body.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1964,22 +1976,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Potato Regular (± 50 gm)</t>
+          <t>Chaldal Premium Koi Fish Medium and Deshi Roshun (Combo)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>৳ 45</t>
+          <t>৳ 269</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 -22 pcs  Buy regular potato from us which provides you with dietary fiber, potassium, vitamins, etc. Regular potato provides 9-10 percent of your daily need. Regular potatoes offer more of this nutrient which helps control your blood pressure. Make a good curry with regular potato. You can make French fries and you can enjoy with your family members. </t>
+          <t xml:space="preserve">Deshi Roshun (Garlic Local) ±25 gm 500 gm  Chaldal Premium Koi Fish Medium (7-9 pcs) ±30 gm 500 gm  Koi are freshwater fish that belong to the family of carp fish. Koi has a single centre bone and multiple small bones, that can be removed after cooking. It has firm skin and texture and an oily flavor. This cut consists of medium-sized, whole, cleaned &amp; gutted koi fish, with head, for your convenience. Koi fish can be enjoyed steamed, grilled, fried or in curries. They are widely enjoyed in Bengali cuisine, Tel Koi being a popular dish.  45-50  Garlic is an excellent source of minerals and vitamins that are essential for optimum health. The bulbs are one of the richest sources of potassium, iron, calcium, magnesium, manganese, zinc, and selenium. Selenium is a heart-healthy mineral, and is an important cofactor for antioxidant enzymes within the body. </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2024,7 +2036,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>৳ 35</t>
+          <t>৳ 29</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2041,20 +2053,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Crown Dabbas Dates</t>
+          <t>Date Crown Lulu Dates</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1 kg</t>
+          <t>400 gm</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>৳ 549</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>৳ 249</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*Features an elongated oval *shape and smooth, glossy skin *Rich in fibers *High in potassium *Low in sodium *Source of magnesium *Naturally sweet flavour makes these dates a perfect choice for adding to cakes, cookies, and more *Ideal on-the-go snacking option *Can be stored in an airtight container to preserve freshness *Vegan *Gluten Free *No added sugar and preservatives </t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Dates (Khejur)</t>
@@ -2064,16 +2080,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chaldal Sippy Orange Drinks 500 gm And Crown Dabbas Dates 1 kg (Combo Offer)</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>Maryam Premium Dates</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>500 gm</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>৳ 769</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>৳ 599</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Dry,Semi-Moist,Oragnic,Dairy Free,Nut Free,Egg Ingredients: Mabroom/Morium Dates/ Khejur Imported Dates. Halal Net Weight: 500gm</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Dates (Khejur)</t>
@@ -2137,7 +2161,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chaldal Premium Pangas Fish Headless ±30 gm</t>
+          <t>Chaldal Premium Rui Fish Headless Curry Cut and Deshi Roshun (Combo)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2147,12 +2171,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>৳ 199</t>
+          <t>৳ 369</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pangas is a less bony fish, it has pink flesh and a mild smell which makes it popular. Pangas flesh is tender and has a moist &amp; sweet flavor. When cooked the flesh turns white and flaky.  Chaldal Pangas Curry Cut each pack contains 500gm which has 7 to 11 pics fish steak.  Pangas is a versatile fish that can be cooked in a variety of ways, including baking, grilling, frying, and steaming. It is a low-fat, low-calorie protein source that is rich in essential nutrients like Omega-3 fatty acids, vitamins B12 and D, and minerals such as phosphorus and selenium. Whether you are a professional chef or a home cook, Pangas fish is a great option for those who want to include more seafood in their diet. Order Pangas fish today and add a healthy, delicious, and easy-to-cook option to your menu!</t>
+          <t>Deshi Roshun (Garlic Local) ±25 gm 500 gm  Chaldal Premium Rui Fish Headless Curry Cut (7-11 pcs) ±30 gm 500 gm  We are offering Premium Rui With means This fishes are 100% dish bread and specially collected from Rajshahi.  Our RUI fish are mentioned as Medium size with means each of the live fish will have to be between 1.8 KG to 2.5 KG.  Bengali cut pieces of Freshwater Rui that's caught fresh, cut, cleaned.  These are Medium pieces of Bengali Cuts of freshwater Rui, that are perfect for curries or fish fry. Rui is a soft-textured bony fish with a subtle flavour.  Chaldal fish &amp; seafood is sourced from approved local fishermen Regularly, they contain no added chemicals.  Features of our premium Rui fish:  1. 100% native cotton fish. 2. Our fishes are sourced from selected fish farms in Rajshahi where systematic fish farming is ensured. 3. Our premium fish are processed under our own supervision by skilled artisans. 4. Clean water is used when poaching premium fish. 5. Safe packing is done in compliance with complete hygiene rules. 6. Fish are caught and processed on the same day.  45-50 Garlic is an excellent source of minerals and vitamins that are essential for optimum health. The bulbs are one of the richest sources of potassium, iron, calcium, magnesium, manganese, zinc, and selenium. Selenium is a heart-healthy mineral, and is an important cofactor for antioxidant enzymes within the body.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2164,7 +2188,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chaldal Premium Koi Fish Medium (7-9 pcs) ±30 gm</t>
+          <t>Chaldal Premium Koi Fish Medium and Deshi Roshun (Combo)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2174,12 +2198,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>৳ 239</t>
+          <t>৳ 269</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Koi are freshwater fish that belong to the family of carp fish. Koi has a single centre bone and multiple small bones, that can be removed after cooking. It has firm skin and texture and an oily flavor. This cut consists of medium-sized, whole, cleaned &amp; gutted koi fish, with head, for your convenience. Koi fish can be enjoyed steamed, grilled, fried or in curries. They are widely enjoyed in Bengali cuisine, Tel Koi being a popular dish.</t>
+          <t xml:space="preserve">Deshi Roshun (Garlic Local) ±25 gm 500 gm  Chaldal Premium Koi Fish Medium (7-9 pcs) ±30 gm 500 gm  Koi are freshwater fish that belong to the family of carp fish. Koi has a single centre bone and multiple small bones, that can be removed after cooking. It has firm skin and texture and an oily flavor. This cut consists of medium-sized, whole, cleaned &amp; gutted koi fish, with head, for your convenience. Koi fish can be enjoyed steamed, grilled, fried or in curries. They are widely enjoyed in Bengali cuisine, Tel Koi being a popular dish.  45-50  Garlic is an excellent source of minerals and vitamins that are essential for optimum health. The bulbs are one of the richest sources of potassium, iron, calcium, magnesium, manganese, zinc, and selenium. Selenium is a heart-healthy mineral, and is an important cofactor for antioxidant enzymes within the body. </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2191,22 +2215,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Horina Chingri (Shrimp) 60-70 pcs ±15 gm</t>
+          <t>Chaldal Premium Rui Fish Headless Curry Cut and Deshi Roshun (Combo)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>250 gm</t>
+          <t>500 gm</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>৳ 229</t>
+          <t>৳ 369</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Before Processing this product live weight was 270 gm and the product quantity around 60-70 pcs.  Source: CULTURED /GHER  Horina Chingri Shiny, moist, and even slippery skin.In Khulna &amp; Shatkhira area best quality Horina Chingri is available. </t>
+          <t>Deshi Roshun (Garlic Local) ±25 gm 500 gm  Chaldal Premium Rui Fish Headless Curry Cut (7-11 pcs) ±30 gm 500 gm  We are offering Premium Rui With means This fishes are 100% dish bread and specially collected from Rajshahi.  Our RUI fish are mentioned as Medium size with means each of the live fish will have to be between 1.8 KG to 2.5 KG.  Bengali cut pieces of Freshwater Rui that's caught fresh, cut, cleaned.  These are Medium pieces of Bengali Cuts of freshwater Rui, that are perfect for curries or fish fry. Rui is a soft-textured bony fish with a subtle flavour.  Chaldal fish &amp; seafood is sourced from approved local fishermen Regularly, they contain no added chemicals.  Features of our premium Rui fish:  1. 100% native cotton fish. 2. Our fishes are sourced from selected fish farms in Rajshahi where systematic fish farming is ensured. 3. Our premium fish are processed under our own supervision by skilled artisans. 4. Clean water is used when poaching premium fish. 5. Safe packing is done in compliance with complete hygiene rules. 6. Fish are caught and processed on the same day.  45-50 Garlic is an excellent source of minerals and vitamins that are essential for optimum health. The bulbs are one of the richest sources of potassium, iron, calcium, magnesium, manganese, zinc, and selenium. Selenium is a heart-healthy mineral, and is an important cofactor for antioxidant enzymes within the body.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2218,7 +2242,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bagda Chingri (Shrimp) 35-40 pcs ±30 gm</t>
+          <t>Chaldal Premium Koi Fish Medium and Deshi Roshun (Combo)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2228,12 +2252,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>৳ 469</t>
+          <t>৳ 269</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Before Processing this product live weight was 520 gm and the product quantity around 35-40 pcs.  Source:CULTURED /GHER  English Name: Tiger Prawn. Bengali Name: Bagda Chingri.Tiger prawns are large-bodied . Tiger prawns get their common name from the stripes that cover their shell..In Khulna &amp; Satkhira area best quality Tiger Prawn fish available. </t>
+          <t xml:space="preserve">Deshi Roshun (Garlic Local) ±25 gm 500 gm  Chaldal Premium Koi Fish Medium (7-9 pcs) ±30 gm 500 gm  Koi are freshwater fish that belong to the family of carp fish. Koi has a single centre bone and multiple small bones, that can be removed after cooking. It has firm skin and texture and an oily flavor. This cut consists of medium-sized, whole, cleaned &amp; gutted koi fish, with head, for your convenience. Koi fish can be enjoyed steamed, grilled, fried or in curries. They are widely enjoyed in Bengali cuisine, Tel Koi being a popular dish.  45-50  Garlic is an excellent source of minerals and vitamins that are essential for optimum health. The bulbs are one of the richest sources of potassium, iron, calcium, magnesium, manganese, zinc, and selenium. Selenium is a heart-healthy mineral, and is an important cofactor for antioxidant enzymes within the body. </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2245,24 +2269,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Broiler Chicken Skin On ± 50 gm</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1 kg</t>
-        </is>
-      </c>
+          <t>Fresh Haleem Mix 200 gm And Halim Meat (Beef) ± 20 gm 300 gm (Combo Offer)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>৳ 329</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Before processing this product's live weight was 1.5-1.55 kg.  Broiler chickens are raised primarily for meat rather than to lay eggs. These poultry are often white and are bred to be large and very healthy, often with more breast meat for the consumer market. Broiler chicken breeds grow very fast and offer good value in terms of protein and calories.</t>
-        </is>
-      </c>
+          <t>৳ 259</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Meat</t>
@@ -2272,22 +2288,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cock Chicken Skin Off ± 25 gm</t>
+          <t>Broiler Chicken Skin On ± 50 gm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>500 gm</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>৳ 299</t>
+          <t>৳ 329</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Before processing this product's live weight was 900-950 gm.  After Processed Weight: 500-550 gm. A cock is a sexually mature chicken over one year of age, also known as a rooster. Bonus definitions: A cockerel is a young male chicken that is not yet one year old. A pullet is a young female chicken that is fully feathered, is less than one year of age, and has not yet laid an egg. </t>
+          <t>Before processing this product's live weight was 1.5-1.55 kg.  Broiler chickens are raised primarily for meat rather than to lay eggs. These poultry are often white and are bred to be large and very healthy, often with more breast meat for the consumer market. Broiler chicken breeds grow very fast and offer good value in terms of protein and calories.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2349,22 +2365,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fargo Safe Dry Fish (Chingri Shutki)</t>
+          <t>Fargo Safe Dry Fish (Churi Shutki)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>250 gm</t>
+          <t>100 gm</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>৳ 290</t>
+          <t>৳ 305</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Fargo is introducing safe and Organic Chingri Dry Fish (from World Bank, IFAD &amp; PKSF supported Safe Dry Fish Project). This quality protein and nutrient rich sea dry fish has iodine*, high-quality protein, OMEGA-3 Fatty Acid, Zinc, Calcium, copper and selenium. It is 100% natural and hygienically processed with no added preservatives.</t>
+          <t>Fargo is introducing safe and Organic Churi Dry Fish (from World Bank, IFAD &amp; PKSF supported Safe Dry Fish Project). This quality protein and nutrient rich sea dry fish has iodine*, high-quality protein, OMEGA-3 Fatty Acid, Zinc, Calcium, copper and selenium. It is 100% natural and hygienically processed with no added preservatives.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2376,22 +2392,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fargo Safe Dry Fish (Churi Shutki)</t>
+          <t>Kazi Farms Kitchen Kechki Dried Fish</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>100 gm</t>
+          <t>125 gm</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>৳ 305</t>
+          <t>৳ 280</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Fargo is introducing safe and Organic Churi Dry Fish (from World Bank, IFAD &amp; PKSF supported Safe Dry Fish Project). This quality protein and nutrient rich sea dry fish has iodine*, high-quality protein, OMEGA-3 Fatty Acid, Zinc, Calcium, copper and selenium. It is 100% natural and hygienically processed with no added preservatives.</t>
+          <t>Kazi Farms Kitchen Kechki Dried Fish is a high-quality and nutritious food product made from fresh and clean Kechki fish that are caught from freshwater sources. The fish are carefully cleaned, salted, and dried using traditional methods to preserve their taste and nutritional value</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2607,24 +2623,16 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Radhuni Biryani Masala</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>40 gm</t>
-        </is>
-      </c>
+          <t>Fresh Haleem Mix 200 gm And Halim Meat (Beef) ± 20 gm 300 gm (Combo Offer)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>৳ 60</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Specially made mixed spices for mutton, beef, and chicken biryani. The mixing of different spices maintains the standard recipe to prepare delicious Biryani.</t>
-        </is>
-      </c>
+          <t>৳ 259</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>Ready Mix</t>
@@ -2661,20 +2669,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dekko Shahi Shemai</t>
+          <t>Radhuni Shemai</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>180 gm</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>৳ 40</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>৳ 45</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Radhuni shemai has superb taste. it is smooth, lean &amp; thin and easy to prepare. Radhuni shemai is hygienically manufactured from finest quality flour which ensures delicious jorda shemai, milk shemai &amp; falooda.</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>Shemai &amp; Suji</t>
@@ -2684,24 +2696,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cock Vermicelli (Shemai)</t>
+          <t>Dekko Shahi Shemai</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>180 gm</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>৳ 45</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Cock Vermicelli (Shemai) made of pure flour. Its very tasty and healthy. Cock Vermically (Shemai) can be the nice dessert for your family.  Manufactured by: Hashem Foods Ltd.</t>
-        </is>
-      </c>
+          <t>৳ 40</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>Shemai &amp; Suji</t>
@@ -2762,17 +2770,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2 ltr</t>
+          <t>5 ltr</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>৳ 328</t>
+          <t>৳ 800</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">21 years of heritage.  First Vitamin A fortified Soyabean Oil.  Increases immunity.  Strengthens bone &amp; teeth. </t>
+          <t>First Vitamin A fortified Soyabean Oil.  Increases immunity.  Strengthens bone &amp; teeth.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2784,22 +2792,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fresh Fortified Soyabean Oil</t>
+          <t>Rupchanda Fortified Soyabean Oil</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5 ltr</t>
+          <t>2 ltr</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>৳ 800</t>
+          <t>৳ 328</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fresh Fortified Soyabean Oil follows 3 steps of refining process-Perfect Degumming &amp; Neutralization, Balanced De-colorization and Five steps Deodorization to ensure right ratio of Omega 3 &amp; 6 and intact Beta-carotene in Soyabean Oil. Fresh soyabean oil contain vitamin A. Its fresh and healthy.</t>
+          <t xml:space="preserve">21 years of heritage.  First Vitamin A fortified Soyabean Oil.  Increases immunity.  Strengthens bone &amp; teeth. </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2938,22 +2946,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fit Food Chia Seed</t>
+          <t>Ligion Black Seed With Sesame Seed</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>100 gm</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>৳ 320</t>
+          <t>৳ 130</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Best Grade Chia Seed (Good Source of Fibre, Minerals and Omega Fatty Acid )  Benefits of Chia Seeds:  1. The High Fiber and Protein Content in Chia Seeds May Help You Lose Weight 2. Chia Seeds Are Loaded With Antioxidants 3. Almost All the Carbs in Them Are Fiber 4. Chia Seeds Are High in Quality Protein 5. Chia Seeds Deliver a Massive Amount of Nutrients With Very Few Calories 6. Chia Seeds Are High in Omega-3 Fatty Acids 7. Chia Seeds May Lower Your Risk of Heart Disease Given that chia seeds are high in fiber, protein an 8. They’re High in Many Important Bone Nutrients 9. Chia Seeds May Reduce Blood Sugar Levels 10. They May Reduce Chronic Inflammation 11. Chia Seeds Are Easy to Incorporate Into Your Diet</t>
+          <t xml:space="preserve">১। মায়ের স্তনে দুধ বৃদ্ধি, ২। ডায়াবেটিস কমায়, ৩। হাই ব্লাডপ্রেসার নিয়ন্ত্রণ করে, ৪। স্মরণশক্তি বৃদ্ধি করে, ৫। সর্দি, কাশি, এ্যাজমা দূর করে, ৬। পুরুষত্বহীনতা দূর করে, ৭। হার্টের রোগ দূর করে, ৮। মাথার উকুন ও খুশকি দূর করে, ৯। চুল পড়া ও চুল পাকা রোধ করে, ১০। মাথা ধরা দূর করে, ১১। ব্যাথা ও বাত রোগ দূর করে, ১২। পিঠ ও কোমরে ব্যাথা কমায়, ১৩। ক্ষত ও চর্মরোগ দূর করে, ১৪। সর্দি, কাশি, এ্যাজমা, কফ ও গলা ব্যথায় প্রতিদিন ২ বার আধা চামচ করে কালোজিরার তৈল মধুসহ সেবন করুন। সকালে ও রাতে শোয়ার পূর্বে বুকে ও পিঠে কালোজিরার তৈল মালিশ করুন। </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3204,22 +3212,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Chicken Eggs (Special Offer)</t>
+          <t>Duck Eggs (Hasher Dim)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>12 pcs</t>
+          <t>6 pcs</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>৳ 109</t>
+          <t>৳ 99</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
+          <t xml:space="preserve">Egg Weight (Per Pc): 70-80 gm   Locally Sourced; Duck Eggs are an all-natural source of high-quality protein and a number of other nutrients. Duck egg is a good source of Protein, Riboflavin, Folate, Iron and Phosphorus, and a very good source of Vitamin B12 and Selenium. Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. Cost-effective and versatile, the unique nutritional composition of eggs can help meet a variety of nutrient needs of children through older adults. It also good for weight management, muscle strength, healthy pregnancy, brain function, eye health and more. 100% fresh and healthy. </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3578,22 +3586,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Chicken Eggs (Special Offer)</t>
+          <t>Duck Eggs (Hasher Dim)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>12 pcs</t>
+          <t>6 pcs</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>৳ 109</t>
+          <t>৳ 99</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. 100% fresh and healthy.</t>
+          <t xml:space="preserve">Egg Weight (Per Pc): 70-80 gm   Locally Sourced; Duck Eggs are an all-natural source of high-quality protein and a number of other nutrients. Duck egg is a good source of Protein, Riboflavin, Folate, Iron and Phosphorus, and a very good source of Vitamin B12 and Selenium. Eggs are an all-natural source of high-quality protein and a number of other nutrients, all for 70 calories an egg. Cost-effective and versatile, the unique nutritional composition of eggs can help meet a variety of nutrient needs of children through older adults. It also good for weight management, muscle strength, healthy pregnancy, brain function, eye health and more. 100% fresh and healthy. </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3605,12 +3613,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ispahani Mirzapore Tea Bag</t>
+          <t>Fresh Premium Black Tea</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>50 pcs</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3620,7 +3628,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tea leaves are a natural source of goodness. Ispahani Mirzapore Tea is very special blent made from tea leaves of the garden of a Bangladesh. Ispahani Mirzapore Tea Bag is a blend of cheer and refresher. </t>
+          <t>Fresh Premium Black Tea is a type of tea made from the leaves of the Camellia sinensis plant that have undergone a complete oxidation process, resulting in a robust and flavorful brew. Black tea is known for its strong flavor, dark color, and caffeine content, making it a popular choice for tea enthusiasts.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3632,24 +3640,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Brooke Bond Taaza Black Tea</t>
+          <t>Revival Karak Masala Tea</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>150 gm</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>৳ 100</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>In order to stay on top of your packed day, all you need is a clear mind – what's better than a cup of new Brooke Bond Taaza to refresh &amp; clear your mind. Because only new Brooke Bond Taaza is a tea with High Quality fresh Tea Leaves, packed with the Natural Goodness of Theanine, that helps to clear your mind and enables you to manage the demands of everyday life. This tea is perfect for those Spirited Aspirers who believe that the brighter future of their family is the center of their universe. Our world-class tea tasters and experts blend the tea that results in the exceptional colour, superior taste and impeccable aroma of each “Dana” of our brand. Strong processes ensure that the quality remains consistent throughout the year. Taaza makes sure that this phenomenal journey also resonates in every end cup as absolute refreshment!</t>
-        </is>
-      </c>
+          <t>৳ 170</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>Tea &amp; Coffee</t>
@@ -3952,22 +3956,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cadbury Dairy Milk Silk Oreo Chocolate</t>
+          <t>Amul Dark Chocolate</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>60 gm</t>
+          <t>40 gm</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>৳ 150</t>
+          <t>৳ 129</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Product Origin:India   Description:  • Cadbury Dairy Milk Silk is all about regaling in the richness and creaminess of the chocolate. Indulge in a rich, smooth and creamy celebration.  • Silk: The classic taste of Cadbury Dairy Milk chocolates only more creamy, more smooth, more indulging.  • Cadbury Dairy Milk Silk is made with a glass and a half of milk.  • This pack is perfect to indulge in all alone or as a gift for your special someone.  • Every bar is made from 100% sustainable cocoa.  • Suitable for vegetarians.</t>
+          <t xml:space="preserve">Origin: India Amul Dark Chocolate is made with the finest ingredients and delicious cocoa. For a better texture, the finest particle size (approx. 20 microns) is achieved through world-class refining, leaving you to indulge in the exquisite taste of rich dark chocolate. • 55% dark chocolate • No milk solids • No vegetable fat • Pure cocoa butter &amp; solids </t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4214,24 +4218,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Panda Authentic Chinese Noodles</t>
+          <t>Mr.Noodles Magic Masala Easy Instant</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>300 gm</t>
+          <t>496 gm</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>৳ 60</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Panda Authentic Chinese Noodles is a brand of noodles that offers a taste and texture reminiscent of traditional Chinese cuisine. These noodles are commonly used in a variety of Chinese dishes, such as stir-fries, soups, and noodle-based recipes.</t>
-        </is>
-      </c>
+          <t>৳ 160</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
           <t>Noodles</t>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>185 gm</t>
+          <t>250 gm</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5303,17 +5303,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Stainless Steel Spatula</t>
+          <t>Cake Mold</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>3 pcs</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>৳ 239</t>
+          <t>৳ 135</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -5326,22 +5326,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Transparent Disposable Piping Bags (8.5"x12.5")</t>
+          <t>Small Measurement Mug</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>100 pcs</t>
+          <t>each</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>৳ 469</t>
+          <t>৳ 179</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Piping bags are necessary for cake decoration. Fill these piping bags with cream and squeeze these with your hand to make designs on the cake. You can fit nozzles to these piping bags for designing easily.</t>
+          <t xml:space="preserve">500 ml, Material: Heavy plastic, Made in china </t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5407,22 +5407,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AG Food Chicken Salami 11-12 pcs</t>
+          <t>Kazi Farms Kitchen Chicken Spicy Meat Ball</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>200 gm</t>
+          <t>250 gm</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>৳ 250</t>
+          <t>৳ 195</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Country Of Origin: Bangladesh</t>
+          <t>Kazi Farms Kitchen chicken meatballs combine the incredible sort of Italian Style with a rich ingredient. Mixed with chicken and some rich flavor.They can be served as an appetizer, added to pasta dishes, used in sandwiches, or eaten as a snack.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5434,22 +5434,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>AG Food Chicken Mini Samosa</t>
+          <t>AG Food Chicken Salami 11-12 pcs</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>250 gm</t>
+          <t>200 gm</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>৳ 220</t>
+          <t>৳ 250</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>23-25 pcs crispy and delicious Chicken Mini Samosa.Storage:Keep frozen (-18°C or below). Do not refreeze once defrosted.Filling: Chicken meat, Salt, Sugar, Spices, Green Chili, Onion, and Soybean Oil.Pastry: Flour, Corn Starch, Salt, Water &amp; Soybean Oil.</t>
+          <t>Country Of Origin: Bangladesh</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
